--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_267.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_267.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d225559-Reviews-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>160</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Torrance-Harbor-Gateway.h328454.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_267.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_267.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="696">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1994 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r584004885-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>33182</t>
+  </si>
+  <si>
+    <t>225559</t>
+  </si>
+  <si>
+    <t>584004885</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>Sheldia greated us at the desk witha smile, made the check in process super easy and was eager to assist us in any way. She made a tough trip easier with a few simple guestures. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Sheldia greated us at the desk witha smile, made the check in process super easy and was eager to assist us in any way. She made a tough trip easier with a few simple guestures. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r569569357-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>569569357</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>THE VERY BEST STAFF/ CUSTOMER SERVICE YOU WILL EVER EXPERIENCE</t>
+  </si>
+  <si>
+    <t>I was staying at the ESA down the street from this one before I moved into this one. At the time I was pretty bummed to have to move and I felt it was a huge inconvenience since I had so much stuff but I quickly realized that this move was a blessing in disguise. You couldn’t pay me a million bucks to go back to the other one. Not only are the rooms bigger and spacious, they have a good quality leather lazy boy chair, a bathtub, a kitchen with countertops and a full size fridge, all of which the Gardena location lacked with their tiny rooms. In addition to those positives, the furniture and decor are a step up are with the times and give off a refreshingly modern feel. So props to this location for taking good care of the rooms and the building all together is in good shape, clean and well kept. The other nice thing about this location is that it is close to anything you might need without having to drive. There is a shopping center next door which includes a Walmart, Starbucks, Carl’s Jr., Dollar Tree, Office Depot and many other spots to eat and spend your dough. But my hands down favorite thing about this place is the staff, from the top down. Saul, the manager is a very nice man and seems to have a positive good working relationship with...I was staying at the ESA down the street from this one before I moved into this one. At the time I was pretty bummed to have to move and I felt it was a huge inconvenience since I had so much stuff but I quickly realized that this move was a blessing in disguise. You couldn’t pay me a million bucks to go back to the other one. Not only are the rooms bigger and spacious, they have a good quality leather lazy boy chair, a bathtub, a kitchen with countertops and a full size fridge, all of which the Gardena location lacked with their tiny rooms. In addition to those positives, the furniture and decor are a step up are with the times and give off a refreshingly modern feel. So props to this location for taking good care of the rooms and the building all together is in good shape, clean and well kept. The other nice thing about this location is that it is close to anything you might need without having to drive. There is a shopping center next door which includes a Walmart, Starbucks, Carl’s Jr., Dollar Tree, Office Depot and many other spots to eat and spend your dough. But my hands down favorite thing about this place is the staff, from the top down. Saul, the manager is a very nice man and seems to have a positive good working relationship with his employees and it shows by how happy they all are. Unlike most places where people work in customer service, these workers do not look like they hate their job, in face they appear to enjoy what they do and make you feel like they actually sincerely want to make sure you are taken care of and get what you need and more while you stay there. They made me feel so welcomed and at home right away, which I really needed after couch surfing for a couple months. NI have bad credit and even though I have been making enough to rent an apartment, no one will rent to me and I am at a point in life where I need a break from roomates. It is a bit pricey but there are coupon codes and certain refunds that significantly reduce the rate. Also if you consider, utilities are paid, you get cable TV and WiFi, and no first and lasts and deposit. And the staff just really makes this place worth it with their kindness sand helpfulness. And lastly but definitely not least, I have to give a shout out to one of the front desk ladies, Sheilda, who has been considerably extra helpful and amazing. She has gone above and beyond the standard to help me and make things easier during difficult times and brightened my day on numerous occasions and continues to do so and I owe many thank yous to her, especially for getting that new HUGE TV and cable going in my room. But all the ladies are great. Shout out also to my fave Latina mama that works graveyard ;).  &lt;3   #334MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>I was staying at the ESA down the street from this one before I moved into this one. At the time I was pretty bummed to have to move and I felt it was a huge inconvenience since I had so much stuff but I quickly realized that this move was a blessing in disguise. You couldn’t pay me a million bucks to go back to the other one. Not only are the rooms bigger and spacious, they have a good quality leather lazy boy chair, a bathtub, a kitchen with countertops and a full size fridge, all of which the Gardena location lacked with their tiny rooms. In addition to those positives, the furniture and decor are a step up are with the times and give off a refreshingly modern feel. So props to this location for taking good care of the rooms and the building all together is in good shape, clean and well kept. The other nice thing about this location is that it is close to anything you might need without having to drive. There is a shopping center next door which includes a Walmart, Starbucks, Carl’s Jr., Dollar Tree, Office Depot and many other spots to eat and spend your dough. But my hands down favorite thing about this place is the staff, from the top down. Saul, the manager is a very nice man and seems to have a positive good working relationship with...I was staying at the ESA down the street from this one before I moved into this one. At the time I was pretty bummed to have to move and I felt it was a huge inconvenience since I had so much stuff but I quickly realized that this move was a blessing in disguise. You couldn’t pay me a million bucks to go back to the other one. Not only are the rooms bigger and spacious, they have a good quality leather lazy boy chair, a bathtub, a kitchen with countertops and a full size fridge, all of which the Gardena location lacked with their tiny rooms. In addition to those positives, the furniture and decor are a step up are with the times and give off a refreshingly modern feel. So props to this location for taking good care of the rooms and the building all together is in good shape, clean and well kept. The other nice thing about this location is that it is close to anything you might need without having to drive. There is a shopping center next door which includes a Walmart, Starbucks, Carl’s Jr., Dollar Tree, Office Depot and many other spots to eat and spend your dough. But my hands down favorite thing about this place is the staff, from the top down. Saul, the manager is a very nice man and seems to have a positive good working relationship with his employees and it shows by how happy they all are. Unlike most places where people work in customer service, these workers do not look like they hate their job, in face they appear to enjoy what they do and make you feel like they actually sincerely want to make sure you are taken care of and get what you need and more while you stay there. They made me feel so welcomed and at home right away, which I really needed after couch surfing for a couple months. NI have bad credit and even though I have been making enough to rent an apartment, no one will rent to me and I am at a point in life where I need a break from roomates. It is a bit pricey but there are coupon codes and certain refunds that significantly reduce the rate. Also if you consider, utilities are paid, you get cable TV and WiFi, and no first and lasts and deposit. And the staff just really makes this place worth it with their kindness sand helpfulness. And lastly but definitely not least, I have to give a shout out to one of the front desk ladies, Sheilda, who has been considerably extra helpful and amazing. She has gone above and beyond the standard to help me and make things easier during difficult times and brightened my day on numerous occasions and continues to do so and I owe many thank yous to her, especially for getting that new HUGE TV and cable going in my room. But all the ladies are great. Shout out also to my fave Latina mama that works graveyard ;).  &lt;3   #334More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r565527264-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>565527264</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay!</t>
+  </si>
+  <si>
+    <t>The team that runs the front desk is fantastic! From the manager down,  each and everyone was very nice and helpful. We were there 2 months for my husband job, overall the place was very enjoyable. Not a 5 due to the cleaning crew, they seem to hit and miss, this may be due to the amount of rooms and number of cleaning staff. Had to request additional cleaning several times but the front desk always came through and made sure things were done. You know a good hotel by their staff, if something is wrong they will fix it...Such is this place. Would come again!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2018</t>
+  </si>
+  <si>
+    <t>The team that runs the front desk is fantastic! From the manager down,  each and everyone was very nice and helpful. We were there 2 months for my husband job, overall the place was very enjoyable. Not a 5 due to the cleaning crew, they seem to hit and miss, this may be due to the amount of rooms and number of cleaning staff. Had to request additional cleaning several times but the front desk always came through and made sure things were done. You know a good hotel by their staff, if something is wrong they will fix it...Such is this place. Would come again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r563080271-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>563080271</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Marijuana and cigaratte Infested</t>
+  </si>
+  <si>
+    <t>The smell of cigarettes and marijuana were so strong when we arrived it was overwhelming. Then within a short time of being in our room, the smoke and smell of marijuana came through our door. Our room was visibly unclean and left us concerned about the overall cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>The smell of cigarettes and marijuana were so strong when we arrived it was overwhelming. Then within a short time of being in our room, the smoke and smell of marijuana came through our door. Our room was visibly unclean and left us concerned about the overall cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r561354208-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>561354208</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Couldn't be better.   Courtious staff.   Room was perfect.   Clean.   Fresh.   On time to check in.    Easy parking.    Reasonable rates.  Sheldia took care of everything perfectly ....     she's a great asset to the company.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Couldn't be better.   Courtious staff.   Room was perfect.   Clean.   Fresh.   On time to check in.    Easy parking.    Reasonable rates.  Sheldia took care of everything perfectly ....     she's a great asset to the company.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r560706685-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>560706685</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing staff </t>
+  </si>
+  <si>
+    <t>The staff at this hotel is so amazing!!! I had the pleasure of meeting the General Manager Saul he went above and beyond to accommodate us bringing our entire family including our 11 month old Great Dane puppy. I cannot thank you enough on how kind you and your staff have been . Will definitely stay here again !!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is so amazing!!! I had the pleasure of meeting the General Manager Saul he went above and beyond to accommodate us bringing our entire family including our 11 month old Great Dane puppy. I cannot thank you enough on how kind you and your staff have been . Will definitely stay here again !!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r556984719-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>556984719</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>5 stars</t>
+  </si>
+  <si>
+    <t>This was a great location to catch-up on rest. It was quiet and comfortable. I must say that customer service was above and beyond my expectations! Thanks for your hospitality and help Sheldia. It was a great stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>This was a great location to catch-up on rest. It was quiet and comfortable. I must say that customer service was above and beyond my expectations! Thanks for your hospitality and help Sheldia. It was a great stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r556125634-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>556125634</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Helpful Receptionist</t>
+  </si>
+  <si>
+    <t>My booking on ExtendedStay America in Carson St. was declined somehow they do not have the room and they transfer me to ExtendedStay America in this location. Paulina is the one who help me to get the room that I need since I bring my Mom who is on wheelchair and baby so I need room with double bed. Thanks a lot Paulina!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>My booking on ExtendedStay America in Carson St. was declined somehow they do not have the room and they transfer me to ExtendedStay America in this location. Paulina is the one who help me to get the room that I need since I bring my Mom who is on wheelchair and baby so I need room with double bed. Thanks a lot Paulina!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r555960783-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>555960783</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Comfortable room.  Professional and friendly employees.  No smoking in the hotel.  Very quiet.  Stayed three nights.  Would recommend to anyone.  The room was clean.  Coffee, tea, granola bars and muffins from 6 to 9 every morning. The bed was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Comfortable room.  Professional and friendly employees.  No smoking in the hotel.  Very quiet.  Stayed three nights.  Would recommend to anyone.  The room was clean.  Coffee, tea, granola bars and muffins from 6 to 9 every morning. The bed was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r551621656-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>551621656</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Stay at hotel</t>
+  </si>
+  <si>
+    <t>Very quiet area. Very convenient check in. Staff always friendly. Would recommend to friends and family. Reasonable priced when use extended stay website. Always stay when come in town. Close to los AngelesMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Very quiet area. Very convenient check in. Staff always friendly. Would recommend to friends and family. Reasonable priced when use extended stay website. Always stay when come in town. Close to los AngelesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r540094894-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>540094894</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me. </t>
+  </si>
+  <si>
+    <t>Nice and quiet. Close to some shopping and places to eat. Stephani the front desk clerk was very competent, efficient and pleasant. About 20 minutes away from LAX with no traffic. Worth the drive to not hear the airplanes.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Nice and quiet. Close to some shopping and places to eat. Stephani the front desk clerk was very competent, efficient and pleasant. About 20 minutes away from LAX with no traffic. Worth the drive to not hear the airplanes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r531099133-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>531099133</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Nothing was in order. The staff was rude and unprofessional. All dishes went available. Grab n go breakfast was noavaila</t>
+  </si>
+  <si>
+    <t>The grab n go breakfast was not available at the time stated. The coffee pots were empty. All my dishes were never given to me. And I constantly had to make trips to the front desk. And was accused of smoking marijuana in a smoking room in which I do smoke Newport's so management refused to return my deposit to me in fact I NEVER smoked marijuana inside the room..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>The grab n go breakfast was not available at the time stated. The coffee pots were empty. All my dishes were never given to me. And I constantly had to make trips to the front desk. And was accused of smoking marijuana in a smoking room in which I do smoke Newport's so management refused to return my deposit to me in fact I NEVER smoked marijuana inside the room..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r511003035-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>511003035</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Value for Money</t>
+  </si>
+  <si>
+    <t>Good to stay here need to improve the quality of Room and services provided to us. Very hard to book the room online through our International credit card always shown temporarily error. Rest all are fine location is excellent for my business MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Good to stay here need to improve the quality of Room and services provided to us. Very hard to book the room online through our International credit card always shown temporarily error. Rest all are fine location is excellent for my business More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r508419159-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>508419159</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Roaches and Mildew</t>
+  </si>
+  <si>
+    <t>There are roaches and mildew in bathrooms. Parking lot is in safe and often broken into. Not at all worth $100+   no pool or other activity, bbq grills or picnic tables.  Overall not up to par.  Below standard. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>There are roaches and mildew in bathrooms. Parking lot is in safe and often broken into. Not at all worth $100+   no pool or other activity, bbq grills or picnic tables.  Overall not up to par.  Below standard. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r503055989-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>503055989</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>2 Star Hotel at best</t>
+  </si>
+  <si>
+    <t>The room had layers of dirt on the headboard, dead bugs in the light fixtures and overall unclean feel. They keypads for the side entry &amp; laundry room did not work. the shower fixture was not secure to the wall. This was my first time at any extended stay and was not impressed; I expected better.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>The room had layers of dirt on the headboard, dead bugs in the light fixtures and overall unclean feel. They keypads for the side entry &amp; laundry room did not work. the shower fixture was not secure to the wall. This was my first time at any extended stay and was not impressed; I expected better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r499257467-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>499257467</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Convinced and meet our needs</t>
+  </si>
+  <si>
+    <t>The room is pretty good, the bed is confortable, only hallway has little smell, plus elevator is too old has squizing sound and slow.  Every room has kitchen, front desk offer utensils sets use for no extra charge.  "Breakfast" is very simple!! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>The room is pretty good, the bed is confortable, only hallway has little smell, plus elevator is too old has squizing sound and slow.  Every room has kitchen, front desk offer utensils sets use for no extra charge.  "Breakfast" is very simple!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r497828375-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>497828375</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Could be better</t>
+  </si>
+  <si>
+    <t>I didn¨t feel that that you reveice and excellent deal for the price you pay. Guest need to be pending for all details intead staff hotel. no clean, bad odor, no ditches, looks pretty old and no good maintenanceMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>I didn¨t feel that that you reveice and excellent deal for the price you pay. Guest need to be pending for all details intead staff hotel. no clean, bad odor, no ditches, looks pretty old and no good maintenanceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r495537329-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>495537329</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Not good value</t>
+  </si>
+  <si>
+    <t>This hotel was kind of grubby, room could have been cleaner, and was still expensive at $150 a night with the rate i got.  I wouldn't stay there again if i could help it.  It's in a good location for road warriors, but I'd find something else if possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was kind of grubby, room could have been cleaner, and was still expensive at $150 a night with the rate i got.  I wouldn't stay there again if i could help it.  It's in a good location for road warriors, but I'd find something else if possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r458939550-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>458939550</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>OK if you are on a very tight budget</t>
+  </si>
+  <si>
+    <t>Good:- Nice, helpful staff- Plenty of parking- No funny smells inside the room- Clean sheets- Mini-kitchen*- Iron and board inside the roomBad:- Stained carpet- Fridge is from the 80s, has odor inside. MW oven not very clean- Bathroom aged. Water drains slowly- Accessories need cleaning too (phone, lamps etc)If you need a quieter room - ask for one facing the Walmart Overall - it worked well for staying a few nights during the biz  trip, but for family vacations - would look for something better</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r452116970-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>452116970</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>A family trip!</t>
+  </si>
+  <si>
+    <t>Good place for family trip! You will feel at home with all the amenities.The room is spacious and it is clean. The staffs are very helpful and the nearby, you can find lots of stores and supermarkets.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Good place for family trip! You will feel at home with all the amenities.The room is spacious and it is clean. The staffs are very helpful and the nearby, you can find lots of stores and supermarkets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r439660733-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>439660733</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>very good value for money</t>
+  </si>
+  <si>
+    <t>the location of this hotel is not the greatest, however it is very close to the freeway and it is very quiet, the room is decent and and staff are helpful, they have room service once a week, make sure to remind front desk to clean your room as they tend to forget.room has a small kitchenette which was really helpful, there is a walmart in the back which is good for groceries and there are some close fast food joints for a quick bite.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>the location of this hotel is not the greatest, however it is very close to the freeway and it is very quiet, the room is decent and and staff are helpful, they have room service once a week, make sure to remind front desk to clean your room as they tend to forget.room has a small kitchenette which was really helpful, there is a walmart in the back which is good for groceries and there are some close fast food joints for a quick bite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r434860857-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>434860857</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY-Ruin Down-Dirty-No Maintenance</t>
+  </si>
+  <si>
+    <t>This is the first time that I TRIED Extended Stay America. I will be working in the area for the next six to nine months and ESA sounded good. I have been in many places, many countries, many hotels but this one is the worst I have been in my life.
+First views coming into the hotel:
+Dirty entrance/carpet with dirt everywhere
+Looking on that I decided to stay seven days instead of nine. Thank God.  
+Going into the room:
+First impression. Dirty, filthy everything coming apart.
+Kitchen faucet, I am not sure is not tight to the sink (I got a video), refrigerator dirty, window curtain with huge yogurt? Stains, carpet filthy (I got to wear house shoes so nothing happen to me).
+I had to ask for dishes plates etc. since they had nothing inside. 
+Cabinet drawings extremely dirty with huge stains, bed cover holes, closet space small and with four hangers inside (Extended stay? Imagine short stay)
+Bathroom mildew and shampoo small bottle missing 90%. Must be their recycling process.
+I did ask to come and fix the faucet but no maintenance people are available today. I must wait for Monday. I was told to move to another room but I do not want to repack everything.
+It’s a wall mart next to this place and I will go buy some bleach and try to decontaminate my room. I am also looking to see how I can...This is the first time that I TRIED Extended Stay America. I will be working in the area for the next six to nine months and ESA sounded good. I have been in many places, many countries, many hotels but this one is the worst I have been in my life.First views coming into the hotel:Dirty entrance/carpet with dirt everywhereLooking on that I decided to stay seven days instead of nine. Thank God.  Going into the room:First impression. Dirty, filthy everything coming apart.Kitchen faucet, I am not sure is not tight to the sink (I got a video), refrigerator dirty, window curtain with huge yogurt? Stains, carpet filthy (I got to wear house shoes so nothing happen to me).I had to ask for dishes plates etc. since they had nothing inside. Cabinet drawings extremely dirty with huge stains, bed cover holes, closet space small and with four hangers inside (Extended stay? Imagine short stay)Bathroom mildew and shampoo small bottle missing 90%. Must be their recycling process.I did ask to come and fix the faucet but no maintenance people are available today. I must wait for Monday. I was told to move to another room but I do not want to repack everything.It’s a wall mart next to this place and I will go buy some bleach and try to decontaminate my room. I am also looking to see how I can cancel and move to a different place. What an experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the first time that I TRIED Extended Stay America. I will be working in the area for the next six to nine months and ESA sounded good. I have been in many places, many countries, many hotels but this one is the worst I have been in my life.
+First views coming into the hotel:
+Dirty entrance/carpet with dirt everywhere
+Looking on that I decided to stay seven days instead of nine. Thank God.  
+Going into the room:
+First impression. Dirty, filthy everything coming apart.
+Kitchen faucet, I am not sure is not tight to the sink (I got a video), refrigerator dirty, window curtain with huge yogurt? Stains, carpet filthy (I got to wear house shoes so nothing happen to me).
+I had to ask for dishes plates etc. since they had nothing inside. 
+Cabinet drawings extremely dirty with huge stains, bed cover holes, closet space small and with four hangers inside (Extended stay? Imagine short stay)
+Bathroom mildew and shampoo small bottle missing 90%. Must be their recycling process.
+I did ask to come and fix the faucet but no maintenance people are available today. I must wait for Monday. I was told to move to another room but I do not want to repack everything.
+It’s a wall mart next to this place and I will go buy some bleach and try to decontaminate my room. I am also looking to see how I can...This is the first time that I TRIED Extended Stay America. I will be working in the area for the next six to nine months and ESA sounded good. I have been in many places, many countries, many hotels but this one is the worst I have been in my life.First views coming into the hotel:Dirty entrance/carpet with dirt everywhereLooking on that I decided to stay seven days instead of nine. Thank God.  Going into the room:First impression. Dirty, filthy everything coming apart.Kitchen faucet, I am not sure is not tight to the sink (I got a video), refrigerator dirty, window curtain with huge yogurt? Stains, carpet filthy (I got to wear house shoes so nothing happen to me).I had to ask for dishes plates etc. since they had nothing inside. Cabinet drawings extremely dirty with huge stains, bed cover holes, closet space small and with four hangers inside (Extended stay? Imagine short stay)Bathroom mildew and shampoo small bottle missing 90%. Must be their recycling process.I did ask to come and fix the faucet but no maintenance people are available today. I must wait for Monday. I was told to move to another room but I do not want to repack everything.It’s a wall mart next to this place and I will go buy some bleach and try to decontaminate my room. I am also looking to see how I can cancel and move to a different place. What an experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r422714153-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>422714153</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>Great stay, clean, quiet rooms. Very good location, close to freeways, shopping, Walmart, etc..Very friendly staff, &amp; very helpful. Manager Saul, &amp; Assist Manager Andrew, always there with help &amp; advice.Every time I'm in town I stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Great stay, clean, quiet rooms. Very good location, close to freeways, shopping, Walmart, etc..Very friendly staff, &amp; very helpful. Manager Saul, &amp; Assist Manager Andrew, always there with help &amp; advice.Every time I'm in town I stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r405960596-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>405960596</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>very nice place to stay</t>
+  </si>
+  <si>
+    <t>check in was smooth and the gentleman at the counter was very friendly and helpful. the room was nice and the bed comfy. very clean and quiet. would stay there again. was happy that there were places you could walk to eat at.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r384715386-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>384715386</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Well maintained property.</t>
+  </si>
+  <si>
+    <t>Husbands company booked him into this property while we moved locations. So we had some time to evaluate the property. Our room was a corner room which had some extra space. If you can get one of these, you should, the extra windows allowed for a nice cross breeze.All of the facilities were well maintained and clean. We had no problems with anything, when something went wrong like the toilet backed up, they came up and fixed it within 10 minutes. The only ongoing problem, is the fire alarm going off, which shut down the elevator. This was from people cooking (and burning) their food. If you are unable to walk the stairs, make sure you specify to get a first floor room.The only other problem, is the hotel is directly across from the King's Hawaiian Bakery factory. It was amazing the first day, and the second. By the third day I was insane and had to buy some of the product. By the end of the stay, I don't know if I'll ever eat their product again I think the constant smell cured me. As others have stated, Wal-mart is adjacent to the property, blocks away from high quality Japanese dining, and other various restaurants. We would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Husbands company booked him into this property while we moved locations. So we had some time to evaluate the property. Our room was a corner room which had some extra space. If you can get one of these, you should, the extra windows allowed for a nice cross breeze.All of the facilities were well maintained and clean. We had no problems with anything, when something went wrong like the toilet backed up, they came up and fixed it within 10 minutes. The only ongoing problem, is the fire alarm going off, which shut down the elevator. This was from people cooking (and burning) their food. If you are unable to walk the stairs, make sure you specify to get a first floor room.The only other problem, is the hotel is directly across from the King's Hawaiian Bakery factory. It was amazing the first day, and the second. By the third day I was insane and had to buy some of the product. By the end of the stay, I don't know if I'll ever eat their product again I think the constant smell cured me. As others have stated, Wal-mart is adjacent to the property, blocks away from high quality Japanese dining, and other various restaurants. We would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r362512573-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>362512573</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>OK But</t>
+  </si>
+  <si>
+    <t>I hadn't stayed here before but I had business in the area so I gave it a try.  I arrived a bit early, 1:15.  The clerk told me my room wasn't ready and probably wouldn't be until 3:00 which is there standard check-in time.  I asked if he could have the maid clean my room next.  He said he would go check with house keeping.  He came back and said they will do it next but it won't be ready until 3:00.  Wow, it sure does take a long time to clean a room.  I asked for a coffee pot and some coffee.  She said she would bring the items up to me and she did that promptly.   The room was a standard ESA room and it appeared clean and the furniture and bedding not to worn.  The TV was a newer flat screen so that was nice.  When I opened the internet their "standard" came up with only two bars.  That was a bummer so I upgraded to the faster strength.  It gave me one more bar.  I didn't appreciate the long black hairs in the towels.  I didn't realize it but I had dropped a couple of ice cubes on the kitchen floor.  When I went back to get more ice a noticed small puddles on the floor so I took a wash cloth to wipe them up.  Oh oh, the cloth was black where I used it...I hadn't stayed here before but I had business in the area so I gave it a try.  I arrived a bit early, 1:15.  The clerk told me my room wasn't ready and probably wouldn't be until 3:00 which is there standard check-in time.  I asked if he could have the maid clean my room next.  He said he would go check with house keeping.  He came back and said they will do it next but it won't be ready until 3:00.  Wow, it sure does take a long time to clean a room.  I asked for a coffee pot and some coffee.  She said she would bring the items up to me and she did that promptly.   The room was a standard ESA room and it appeared clean and the furniture and bedding not to worn.  The TV was a newer flat screen so that was nice.  When I opened the internet their "standard" came up with only two bars.  That was a bummer so I upgraded to the faster strength.  It gave me one more bar.  I didn't appreciate the long black hairs in the towels.  I didn't realize it but I had dropped a couple of ice cubes on the kitchen floor.  When I went back to get more ice a noticed small puddles on the floor so I took a wash cloth to wipe them up.  Oh oh, the cloth was black where I used it on the floor so obviously it hadn't been mopped recently.  And when I got into the shower the next morning lots of fuzz from the carpets came off the bottom of my feet.  So obviously the carpeting hadn't been vacuumed recently either.  And it looked like a guy had missed the toilet as it was dirty at the base of the toilet.  So why does it take sooooo long to clean a room???  TMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>I hadn't stayed here before but I had business in the area so I gave it a try.  I arrived a bit early, 1:15.  The clerk told me my room wasn't ready and probably wouldn't be until 3:00 which is there standard check-in time.  I asked if he could have the maid clean my room next.  He said he would go check with house keeping.  He came back and said they will do it next but it won't be ready until 3:00.  Wow, it sure does take a long time to clean a room.  I asked for a coffee pot and some coffee.  She said she would bring the items up to me and she did that promptly.   The room was a standard ESA room and it appeared clean and the furniture and bedding not to worn.  The TV was a newer flat screen so that was nice.  When I opened the internet their "standard" came up with only two bars.  That was a bummer so I upgraded to the faster strength.  It gave me one more bar.  I didn't appreciate the long black hairs in the towels.  I didn't realize it but I had dropped a couple of ice cubes on the kitchen floor.  When I went back to get more ice a noticed small puddles on the floor so I took a wash cloth to wipe them up.  Oh oh, the cloth was black where I used it...I hadn't stayed here before but I had business in the area so I gave it a try.  I arrived a bit early, 1:15.  The clerk told me my room wasn't ready and probably wouldn't be until 3:00 which is there standard check-in time.  I asked if he could have the maid clean my room next.  He said he would go check with house keeping.  He came back and said they will do it next but it won't be ready until 3:00.  Wow, it sure does take a long time to clean a room.  I asked for a coffee pot and some coffee.  She said she would bring the items up to me and she did that promptly.   The room was a standard ESA room and it appeared clean and the furniture and bedding not to worn.  The TV was a newer flat screen so that was nice.  When I opened the internet their "standard" came up with only two bars.  That was a bummer so I upgraded to the faster strength.  It gave me one more bar.  I didn't appreciate the long black hairs in the towels.  I didn't realize it but I had dropped a couple of ice cubes on the kitchen floor.  When I went back to get more ice a noticed small puddles on the floor so I took a wash cloth to wipe them up.  Oh oh, the cloth was black where I used it on the floor so obviously it hadn't been mopped recently.  And when I got into the shower the next morning lots of fuzz from the carpets came off the bottom of my feet.  So obviously the carpeting hadn't been vacuumed recently either.  And it looked like a guy had missed the toilet as it was dirty at the base of the toilet.  So why does it take sooooo long to clean a room???  TMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r333529180-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>333529180</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>Staff were wonderful, Walmart behind hotel was convenient, booked through 3rd party so didn't realize coffee maker etc was an option, wifi was useless on phones, but the room was clean and the water was hot so would recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Staff were wonderful, Walmart behind hotel was convenient, booked through 3rd party so didn't realize coffee maker etc was an option, wifi was useless on phones, but the room was clean and the water was hot so would recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r325603155-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>325603155</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Walmart just behind the hotel is very convenient</t>
+  </si>
+  <si>
+    <t>The staff has great customer service. The Manager Flora makes you feel like you're at home. Bathroom is bigger than Sheraton. The room was clean and spacious although housekeeping was only once I week, I think? Hey, you get what you paid for, this is not Four Seasons. Walmart behind the hotel makes it very convenient for you to buy quickly some basic needs. The only drawback to this hotel was it didn't have breakfast. It was a grab n' go style. For working people who like to have full breakfast, this is not a good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>The staff has great customer service. The Manager Flora makes you feel like you're at home. Bathroom is bigger than Sheraton. The room was clean and spacious although housekeeping was only once I week, I think? Hey, you get what you paid for, this is not Four Seasons. Walmart behind the hotel makes it very convenient for you to buy quickly some basic needs. The only drawback to this hotel was it didn't have breakfast. It was a grab n' go style. For working people who like to have full breakfast, this is not a good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r322462501-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>322462501</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Good short visit hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms are decent sized, the kitchen is nice , very close to Walmart and food joints. I like there service for the price for $65 per night. Breakfast is basic , coffee , oats , fruits and muffins.  The bedding is comfortable , free internet is very slow </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r313154190-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>313154190</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Barebones :Property Gives Good Service</t>
+  </si>
+  <si>
+    <t>This is not the Ritz..not even close. If you're OK with no housekeeping service, and junky fare they have the nerve to call "grab 'n go" breakfast, rooms that have multiple maintenance problems they will fix within 24 hours, and you don't mind paying an on-line rate equal to what you could get for more, then this place is for you. The desk service is accommodating depending on which personality you get.The rooms are large with adequate facilities such as lighting, kitchen equipment, electric outlets and basic TV service, desks and tables, etc..MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>This is not the Ritz..not even close. If you're OK with no housekeeping service, and junky fare they have the nerve to call "grab 'n go" breakfast, rooms that have multiple maintenance problems they will fix within 24 hours, and you don't mind paying an on-line rate equal to what you could get for more, then this place is for you. The desk service is accommodating depending on which personality you get.The rooms are large with adequate facilities such as lighting, kitchen equipment, electric outlets and basic TV service, desks and tables, etc..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r297063640-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>297063640</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not happy with the room </t>
+  </si>
+  <si>
+    <t>It was a weekend and they're booked , so the bedroom is very roomy but it's two beds and even if I hate my husband sometimes I still want to sleep next to him so our dog doesn't have to choose LOL, anyway got in the room and there's like I don't know kind of smell went to the bathroom and see some brown stuff on the floor and on the corner of the sink some more brown stuff that looks like poop and I'm pretty sure it was hardened poop , can't call so went to the front desk housekeeping came in, showed him the stain and he scraped it with his nails ! I kinda yelled eww don't do that use a cloth or something he said no it's not poor and kept scraping with his nails , I said there were some on the floor too and my husband picked it up with a tissue already and flushed it then I left him finish scraping it off then he just took off without saying anything so we left and the manager is very nice and helpful on giving our refund.I give it a 3 star because even though the room is dirty , phone doesn't work , but the district manager and staff are nice and helped get us out refund from Priceline . MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>It was a weekend and they're booked , so the bedroom is very roomy but it's two beds and even if I hate my husband sometimes I still want to sleep next to him so our dog doesn't have to choose LOL, anyway got in the room and there's like I don't know kind of smell went to the bathroom and see some brown stuff on the floor and on the corner of the sink some more brown stuff that looks like poop and I'm pretty sure it was hardened poop , can't call so went to the front desk housekeeping came in, showed him the stain and he scraped it with his nails ! I kinda yelled eww don't do that use a cloth or something he said no it's not poor and kept scraping with his nails , I said there were some on the floor too and my husband picked it up with a tissue already and flushed it then I left him finish scraping it off then he just took off without saying anything so we left and the manager is very nice and helpful on giving our refund.I give it a 3 star because even though the room is dirty , phone doesn't work , but the district manager and staff are nice and helped get us out refund from Priceline . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r284527207-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>284527207</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Fine On Many Levels, But Non-Smoking should not be on same floor with Smoking!!!</t>
+  </si>
+  <si>
+    <t>The room itself was fine, but our non-smoking room was on the same floor as smoking rooms. The elevator opened up to a sign warning that we were on a smoking floor, and that anyone on the floor would be exposed to chemicals detrimental to our health. Yes, there technically is a wall separating the Smoking side from the Non-Smoking, but you are in the Smoking section when you get off the elevator, and can smell the cigarettes strongly. The closest room to the elevator is Smoking, and less than 3 feet away. Not cool!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r284227977-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>284227977</t>
+  </si>
+  <si>
+    <t>Planned to stay 5 nights - left after 1</t>
+  </si>
+  <si>
+    <t>Avoid this hotel if possible unless you like hallways that smell like cheap Vegas hotels and elevators that are rattle-traps.  Twice we had to wait 5 - 10 minutes for a desk attendant to show up; we could hear the people in the next room; the refrigerator could use a good exterior cleaning; there were very limited channel selections on the TV and the picture was fuzzy.  However, for the most part, the room appeared to be clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r261932132-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>261932132</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Centrally located Quiet Hotel within walking distance to: Walmart, Storage, &amp; Post Office!</t>
+  </si>
+  <si>
+    <t>If you are staying long term this particular property has decent rates where you have a full kitchen, &amp; continental breakfast in the morning.  The only drawback is no business center; however, it really isn't an issue considering it is right next door to: Office Depot.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>If you are staying long term this particular property has decent rates where you have a full kitchen, &amp; continental breakfast in the morning.  The only drawback is no business center; however, it really isn't an issue considering it is right next door to: Office Depot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r258936323-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>258936323</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Bed Bug Inn</t>
+  </si>
+  <si>
+    <t>Yes bed bugs everywhere, not clean at all, actually they never clean your room while you stay there. Pillows are gross, the smell is terrible, I had to request a change of pillows because of the bad smell on my first night while sleeping. Breakfast coffee is terrible, really bad quality. DO NOT STAY in this hotel, there are several options that are even way cheaper and at least clean AND with fresh pillows. People at the front desk are nice but how to defend the indefensible.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Yes bed bugs everywhere, not clean at all, actually they never clean your room while you stay there. Pillows are gross, the smell is terrible, I had to request a change of pillows because of the bad smell on my first night while sleeping. Breakfast coffee is terrible, really bad quality. DO NOT STAY in this hotel, there are several options that are even way cheaper and at least clean AND with fresh pillows. People at the front desk are nice but how to defend the indefensible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r250430188-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>250430188</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Nasty Dump!</t>
+  </si>
+  <si>
+    <t>Do not stay here. It runs $130/night and the rooms look like crackheads should be living in them!!No room service. We're gone all day and come back to the room the way we left it. No beds made, no new towels. Save your money and go somewhere else. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Do not stay here. It runs $130/night and the rooms look like crackheads should be living in them!!No room service. We're gone all day and come back to the room the way we left it. No beds made, no new towels. Save your money and go somewhere else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r242639918-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>242639918</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Rude</t>
+  </si>
+  <si>
+    <t>I spent a night here while on a business trip. Room was booked on line through a major third party web site as I always do. I ended up in a smoking room which I was not happy with. I could smell weed in my room and in the hallway which other guests were using in their rooms with the door cracked open. In the morning when I asked for a receipt their rude manager refused to give me one and claimed since room was booked through a third party company she cannot give me any receipt in spite the fact they still had asked for my credit card at the time of check inn. I was stunned! She said go print your receipt out of the web site you booked your room from!! I will NOT stay at this hotel or for that matter at any Extended Stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>I spent a night here while on a business trip. Room was booked on line through a major third party web site as I always do. I ended up in a smoking room which I was not happy with. I could smell weed in my room and in the hallway which other guests were using in their rooms with the door cracked open. In the morning when I asked for a receipt their rude manager refused to give me one and claimed since room was booked through a third party company she cannot give me any receipt in spite the fact they still had asked for my credit card at the time of check inn. I was stunned! She said go print your receipt out of the web site you booked your room from!! I will NOT stay at this hotel or for that matter at any Extended Stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r238835622-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>238835622</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Best place to stay with affordable price</t>
+  </si>
+  <si>
+    <t>When it comes to Torrance, I always choose Extended Stay America at Harbor Gateway and every time I get a very pleasant and memorable experience. Manager and Staff members are always friendly and approachable. Rooms are spacious that comes with fully equipped kitchens.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>When it comes to Torrance, I always choose Extended Stay America at Harbor Gateway and every time I get a very pleasant and memorable experience. Manager and Staff members are always friendly and approachable. Rooms are spacious that comes with fully equipped kitchens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r237104895-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>237104895</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Top Quality Stay while I was relocating to LA</t>
+  </si>
+  <si>
+    <t>I have been traveling on company business for 30 years and I can appreciate a  nice, quite, clean and relaxing room in a facility that really cares about the guest. I can share with you that my experience at this Torrance Harbor Gateway facility is 'Top Quality' and made special by the staff and the management. I have stayed here recently while I was relocating to LA from Chicago and when you have a consistant experience for over (2) months that speaks very well of the hotel and it's people. Highly recommended, Paul.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>I have been traveling on company business for 30 years and I can appreciate a  nice, quite, clean and relaxing room in a facility that really cares about the guest. I can share with you that my experience at this Torrance Harbor Gateway facility is 'Top Quality' and made special by the staff and the management. I have stayed here recently while I was relocating to LA from Chicago and when you have a consistant experience for over (2) months that speaks very well of the hotel and it's people. Highly recommended, Paul.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r233914209-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>233914209</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Incredible stay</t>
+  </si>
+  <si>
+    <t>I stayed in this Hotel before. However my first stay wasnt that great but this time it was incredible nice!Got a real nice room, spacious, quiet and extremely clean. The staff is super friendly and check-in, check-out couldnt get any better or efficient. Hotel is nicely loacated, free parking and free Internet is available.The manager, Mrs Flora, is the heart and soul of this property and always find the time for a short conversation.I will definetly stay here again when in come back to Torrance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2014</t>
+  </si>
+  <si>
+    <t>I stayed in this Hotel before. However my first stay wasnt that great but this time it was incredible nice!Got a real nice room, spacious, quiet and extremely clean. The staff is super friendly and check-in, check-out couldnt get any better or efficient. Hotel is nicely loacated, free parking and free Internet is available.The manager, Mrs Flora, is the heart and soul of this property and always find the time for a short conversation.I will definetly stay here again when in come back to Torrance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r230369878-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>230369878</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>If you must ...</t>
+  </si>
+  <si>
+    <t>Stayed for only 2 nights.  My biggest complaint was the cleanliness or lack there of.  Curtain, carpet and counters were stained.  We had to clean grime and dirt off the fridge, counters, curtains etc. Even the chair ( I am going to assume it was tomato juice and seeds) we had to clean.  My socks turned black from the filthy floors.  I wiped the floor to clean up water from a shower and the towel was black!  I didn't even touch on all the dust!! OR, that I had been bitten up by bugs BOTH nights when I woke in the morning.  OR, that it smelled old and like smoke when we walked in.  Then there's the noise.  I could hear the people above WALKING .. Now they may be heavy walkers but I could also hear every person in the hall .. Walls are paper thin.  So thin in fact I was privy to a private and intense make out session in the next room.  One morning we awoke to the loud banging and moaning of said party.  Awkward!!! ( now you know I had to stand in the hallway to see who had been putting in all that work - don't judge .. You know you would too!  ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Stayed for only 2 nights.  My biggest complaint was the cleanliness or lack there of.  Curtain, carpet and counters were stained.  We had to clean grime and dirt off the fridge, counters, curtains etc. Even the chair ( I am going to assume it was tomato juice and seeds) we had to clean.  My socks turned black from the filthy floors.  I wiped the floor to clean up water from a shower and the towel was black!  I didn't even touch on all the dust!! OR, that I had been bitten up by bugs BOTH nights when I woke in the morning.  OR, that it smelled old and like smoke when we walked in.  Then there's the noise.  I could hear the people above WALKING .. Now they may be heavy walkers but I could also hear every person in the hall .. Walls are paper thin.  So thin in fact I was privy to a private and intense make out session in the next room.  One morning we awoke to the loud banging and moaning of said party.  Awkward!!! ( now you know I had to stand in the hallway to see who had been putting in all that work - don't judge .. You know you would too!  ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r223924431-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>223924431</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>A very rewarding experience.!!!</t>
+  </si>
+  <si>
+    <t>Its always a pleasure to return to what I like to call home...everything is always so very enjoyable...the surrounding areas of the hotel provides an excellent array of restaurants and shopping.There's also easy access to major freeways and highways. Several malls are only15 minutes away.l always recommend this hotel to friends,family and acquaintances.Personally,I've been a customer of Extended Stay America for nearly 12 years now and I can honestly say that I have never been disappointed with anything. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Its always a pleasure to return to what I like to call home...everything is always so very enjoyable...the surrounding areas of the hotel provides an excellent array of restaurants and shopping.There's also easy access to major freeways and highways. Several malls are only15 minutes away.l always recommend this hotel to friends,family and acquaintances.Personally,I've been a customer of Extended Stay America for nearly 12 years now and I can honestly say that I have never been disappointed with anything. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r214915881-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>214915881</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay on business</t>
+  </si>
+  <si>
+    <t>THG is a great place to stay on business.  The weather is nice, and restaurants and shops are close by so that makes for a nice walk.  The staff is very friendly and accommodating and the rooms are clean.  So far Uber to the airport has not cost me more than $20 and they always come within about 10 minutes.  This is my place of choice to stay when in Torrance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>THG is a great place to stay on business.  The weather is nice, and restaurants and shops are close by so that makes for a nice walk.  The staff is very friendly and accommodating and the rooms are clean.  So far Uber to the airport has not cost me more than $20 and they always come within about 10 minutes.  This is my place of choice to stay when in Torrance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r211893973-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>211893973</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Cathys1122 "Great Customer Sevice"</t>
+  </si>
+  <si>
+    <t>I stayed at Extended Stay-Harbor Gateway in Torrance, CA. The rooms are stylish and clean, the beds are so comfortable.The staff, namely Flora (Manager), Cynthia and Anthony; Front desk are very professional and thorough. When I stay away from home I like to be treated like an important guest and that's how I was treated. If your ever in town and need a nice hotel with caring staff and excellent customer service, I advise you to stay at this hotel. Close by everything; food, shopping, entertainment and freeways for easy access to your next destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at Extended Stay-Harbor Gateway in Torrance, CA. The rooms are stylish and clean, the beds are so comfortable.The staff, namely Flora (Manager), Cynthia and Anthony; Front desk are very professional and thorough. When I stay away from home I like to be treated like an important guest and that's how I was treated. If your ever in town and need a nice hotel with caring staff and excellent customer service, I advise you to stay at this hotel. Close by everything; food, shopping, entertainment and freeways for easy access to your next destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r210345413-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>210345413</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Spartan accommodations at best</t>
+  </si>
+  <si>
+    <t>I'm a frequent traveler and my three nights at the Extended Stay American was one of my more disappointing experiences in some time. It would appear that the management is optimizing around three objectives; keep it simple, keep it clean, and cut every cent possible. 
+It's the last that, in the aggregate, made for a rather icky experience. Let's start with the bathroom; if you decide to stay here plan on bringing your own shampoo, conditioner, lotion, and soap. Other than two silver dollar sized slivers of soap you'll get none of these. If you're used to towels that actually dry you off bring your own because the two provided were so thin I needed both after my shower. Oh.. and whatever you do, be sure to hang them up to dry when you're done because house cleaning never visited my room once in 3 days.  If you're planning on preparing a meal in what appears to be a small kitchen in the stock photos be sure to bring your own utensils, something to cook on, plates to eat on, and glasses to drink from because you'll find none of that in your room.  
+Whatever you do, get a room on the third floor. I felt bad for the folks on the floor beneath me because unless I practically tip toed, every step caused the entire floor and the walls to vibrate.  
+Perhaps I've been spoiled by my experiences at...I'm a frequent traveler and my three nights at the Extended Stay American was one of my more disappointing experiences in some time. It would appear that the management is optimizing around three objectives; keep it simple, keep it clean, and cut every cent possible. It's the last that, in the aggregate, made for a rather icky experience. Let's start with the bathroom; if you decide to stay here plan on bringing your own shampoo, conditioner, lotion, and soap. Other than two silver dollar sized slivers of soap you'll get none of these. If you're used to towels that actually dry you off bring your own because the two provided were so thin I needed both after my shower. Oh.. and whatever you do, be sure to hang them up to dry when you're done because house cleaning never visited my room once in 3 days.  If you're planning on preparing a meal in what appears to be a small kitchen in the stock photos be sure to bring your own utensils, something to cook on, plates to eat on, and glasses to drink from because you'll find none of that in your room.  Whatever you do, get a room on the third floor. I felt bad for the folks on the floor beneath me because unless I practically tip toed, every step caused the entire floor and the walls to vibrate.  Perhaps I've been spoiled by my experiences at the Staybridge down the street (another property that caters to extended stays) but this place made a motel 6 feel luxurious.  I suppose that if I were to inquire at the desk I could probably get some of what was missing from the room but I didn't check. NOTE: The property seems to cater to line workers from nearby industrial businesses. I didn't meet anyone rowdy or unpleasant but you definitely get the sense that you're highly unlikely to bump into families on vacation or white collar business travelers. On the positive side; my room was clean, spacious, and well maintained. The flat panel TV was large and modern.  The A/C was quiet and kept the room cool. The staff was friendly.  The location quiet and convenient to the 405.   In short, there was nothing 'bad' about the property - there just wasn't a lot to recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm a frequent traveler and my three nights at the Extended Stay American was one of my more disappointing experiences in some time. It would appear that the management is optimizing around three objectives; keep it simple, keep it clean, and cut every cent possible. 
+It's the last that, in the aggregate, made for a rather icky experience. Let's start with the bathroom; if you decide to stay here plan on bringing your own shampoo, conditioner, lotion, and soap. Other than two silver dollar sized slivers of soap you'll get none of these. If you're used to towels that actually dry you off bring your own because the two provided were so thin I needed both after my shower. Oh.. and whatever you do, be sure to hang them up to dry when you're done because house cleaning never visited my room once in 3 days.  If you're planning on preparing a meal in what appears to be a small kitchen in the stock photos be sure to bring your own utensils, something to cook on, plates to eat on, and glasses to drink from because you'll find none of that in your room.  
+Whatever you do, get a room on the third floor. I felt bad for the folks on the floor beneath me because unless I practically tip toed, every step caused the entire floor and the walls to vibrate.  
+Perhaps I've been spoiled by my experiences at...I'm a frequent traveler and my three nights at the Extended Stay American was one of my more disappointing experiences in some time. It would appear that the management is optimizing around three objectives; keep it simple, keep it clean, and cut every cent possible. It's the last that, in the aggregate, made for a rather icky experience. Let's start with the bathroom; if you decide to stay here plan on bringing your own shampoo, conditioner, lotion, and soap. Other than two silver dollar sized slivers of soap you'll get none of these. If you're used to towels that actually dry you off bring your own because the two provided were so thin I needed both after my shower. Oh.. and whatever you do, be sure to hang them up to dry when you're done because house cleaning never visited my room once in 3 days.  If you're planning on preparing a meal in what appears to be a small kitchen in the stock photos be sure to bring your own utensils, something to cook on, plates to eat on, and glasses to drink from because you'll find none of that in your room.  Whatever you do, get a room on the third floor. I felt bad for the folks on the floor beneath me because unless I practically tip toed, every step caused the entire floor and the walls to vibrate.  Perhaps I've been spoiled by my experiences at the Staybridge down the street (another property that caters to extended stays) but this place made a motel 6 feel luxurious.  I suppose that if I were to inquire at the desk I could probably get some of what was missing from the room but I didn't check. NOTE: The property seems to cater to line workers from nearby industrial businesses. I didn't meet anyone rowdy or unpleasant but you definitely get the sense that you're highly unlikely to bump into families on vacation or white collar business travelers. On the positive side; my room was clean, spacious, and well maintained. The flat panel TV was large and modern.  The A/C was quiet and kept the room cool. The staff was friendly.  The location quiet and convenient to the 405.   In short, there was nothing 'bad' about the property - there just wasn't a lot to recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r208759364-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>208759364</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>I keep giving them repeat business because they do an excellent job!</t>
+  </si>
+  <si>
+    <t>Convenient location. ...Clean rooms.... friendly and helpful staff.... Starbucks is a 2 minute walk with other good small eateries nearby. 5 stars! !! For a late night snack I used to be able to get a coke or a sprite!  But they recently switched to Pepsi. ... not a reason to not stay here but please bring back the coca cola vendor as soon as possible! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Convenient location. ...Clean rooms.... friendly and helpful staff.... Starbucks is a 2 minute walk with other good small eateries nearby. 5 stars! !! For a late night snack I used to be able to get a coke or a sprite!  But they recently switched to Pepsi. ... not a reason to not stay here but please bring back the coca cola vendor as soon as possible! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r206041786-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>206041786</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Overall Quality and Customer Service</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to stay, "home away from home", this is the place to stay!Excellent customer service, friendly staff, and very clean!  Comfortable accommodations, clean laundry room and nice selection of complimentary breakfast options.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to stay, "home away from home", this is the place to stay!Excellent customer service, friendly staff, and very clean!  Comfortable accommodations, clean laundry room and nice selection of complimentary breakfast options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r205139906-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>205139906</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Nice and clean place to stay</t>
+  </si>
+  <si>
+    <t>Quite and nice place to stay closer to LAX and my work place. Staff are friendly and nice. Manager  is very helpful and very responsive.  I stayed there more than eight time in the last one year and often more than 20 days each time. Very close to my work place and nice resturants and high ways (405 and 105).  Very comfortable rooms with full kitchen. Close to wallmart and other grocery stores. Closer to most of the beaches and safe place to stay. Nice family and friendly environment.I highly recommend to friends and my family visiting LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Quite and nice place to stay closer to LAX and my work place. Staff are friendly and nice. Manager  is very helpful and very responsive.  I stayed there more than eight time in the last one year and often more than 20 days each time. Very close to my work place and nice resturants and high ways (405 and 105).  Very comfortable rooms with full kitchen. Close to wallmart and other grocery stores. Closer to most of the beaches and safe place to stay. Nice family and friendly environment.I highly recommend to friends and my family visiting LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r199067675-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>199067675</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Amazing staff and quiet</t>
+  </si>
+  <si>
+    <t>It is close to where I work on a project and for the price a great value. No frills here but clean and quiet. Good grab and go breakfast. The staff remembers you and are super friendly. Rooms are basic but has a full kitchen. Only drawback is a really hard and uncomfortable bed for more than one night. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>It is close to where I work on a project and for the price a great value. No frills here but clean and quiet. Good grab and go breakfast. The staff remembers you and are super friendly. Rooms are basic but has a full kitchen. Only drawback is a really hard and uncomfortable bed for more than one night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r194405620-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>194405620</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Best ESA hotel in the area</t>
+  </si>
+  <si>
+    <t>I have stayed in a few different ESA hotels in the area and this one is by far the best.  I have been staying here on business the past three weeks, and have no problems.  I work nights and sleep during the day, and I have enjoyed the quiet.  Located in an industrial area so traffic noise is not a problem like other locations.  Flora the manager is great and treats everyone like family.  I will be staying here again when I'm in the area on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded February 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed in a few different ESA hotels in the area and this one is by far the best.  I have been staying here on business the past three weeks, and have no problems.  I work nights and sleep during the day, and I have enjoyed the quiet.  Located in an industrial area so traffic noise is not a problem like other locations.  Flora the manager is great and treats everyone like family.  I will be staying here again when I'm in the area on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r193592277-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>193592277</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Homeless Shelter</t>
+  </si>
+  <si>
+    <t>I've stayed at two of these hotels over the past few years in different parts of the country.  I had the same type of experience with both.  The Extended Stays are like homeless shelters.  Literally, people who don't have a home, but some type of income "live here".  One guy even has a car under a car cover.  Yeah,......he's not in for vacation or business.  Couldn't sleep with the dogs barking and kids crying and yelling. Someone running up and down the halls at 4:00am. Someone stood outside my room in the hallway on the phone for 40 minutes at 10:30pm.  I'm on eastern time, so it felt like 1:30am to me.  Also,......it in a Walmart parking lot.  Lots of lights coming through every crack in the curtains. I went down to the lobby and told them to get me a different room in a different part of the hotel.  Here's the only positive part.  The person working the night shift actually accommodated me.  She gave me another room and was very apologetic, but was not surprised. She new exactly who the person on the phone was, but apparently nothing she can do.  Unfortunately the replacement room was a smoking room (all they had left), but it didn't smell that bad. Breakfast in the lobby is scarce to say the least.  Go to Walmart the night before or go hungry.  I had to go on business and the company I...I've stayed at two of these hotels over the past few years in different parts of the country.  I had the same type of experience with both.  The Extended Stays are like homeless shelters.  Literally, people who don't have a home, but some type of income "live here".  One guy even has a car under a car cover.  Yeah,......he's not in for vacation or business.  Couldn't sleep with the dogs barking and kids crying and yelling. Someone running up and down the halls at 4:00am. Someone stood outside my room in the hallway on the phone for 40 minutes at 10:30pm.  I'm on eastern time, so it felt like 1:30am to me.  Also,......it in a Walmart parking lot.  Lots of lights coming through every crack in the curtains. I went down to the lobby and told them to get me a different room in a different part of the hotel.  Here's the only positive part.  The person working the night shift actually accommodated me.  She gave me another room and was very apologetic, but was not surprised. She new exactly who the person on the phone was, but apparently nothing she can do.  Unfortunately the replacement room was a smoking room (all they had left), but it didn't smell that bad. Breakfast in the lobby is scarce to say the least.  Go to Walmart the night before or go hungry.  I had to go on business and the company I was working for set me up there.  Won't go again unless they book the Holiday Inn only a mile away.  The rooms, however, seem very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at two of these hotels over the past few years in different parts of the country.  I had the same type of experience with both.  The Extended Stays are like homeless shelters.  Literally, people who don't have a home, but some type of income "live here".  One guy even has a car under a car cover.  Yeah,......he's not in for vacation or business.  Couldn't sleep with the dogs barking and kids crying and yelling. Someone running up and down the halls at 4:00am. Someone stood outside my room in the hallway on the phone for 40 minutes at 10:30pm.  I'm on eastern time, so it felt like 1:30am to me.  Also,......it in a Walmart parking lot.  Lots of lights coming through every crack in the curtains. I went down to the lobby and told them to get me a different room in a different part of the hotel.  Here's the only positive part.  The person working the night shift actually accommodated me.  She gave me another room and was very apologetic, but was not surprised. She new exactly who the person on the phone was, but apparently nothing she can do.  Unfortunately the replacement room was a smoking room (all they had left), but it didn't smell that bad. Breakfast in the lobby is scarce to say the least.  Go to Walmart the night before or go hungry.  I had to go on business and the company I...I've stayed at two of these hotels over the past few years in different parts of the country.  I had the same type of experience with both.  The Extended Stays are like homeless shelters.  Literally, people who don't have a home, but some type of income "live here".  One guy even has a car under a car cover.  Yeah,......he's not in for vacation or business.  Couldn't sleep with the dogs barking and kids crying and yelling. Someone running up and down the halls at 4:00am. Someone stood outside my room in the hallway on the phone for 40 minutes at 10:30pm.  I'm on eastern time, so it felt like 1:30am to me.  Also,......it in a Walmart parking lot.  Lots of lights coming through every crack in the curtains. I went down to the lobby and told them to get me a different room in a different part of the hotel.  Here's the only positive part.  The person working the night shift actually accommodated me.  She gave me another room and was very apologetic, but was not surprised. She new exactly who the person on the phone was, but apparently nothing she can do.  Unfortunately the replacement room was a smoking room (all they had left), but it didn't smell that bad. Breakfast in the lobby is scarce to say the least.  Go to Walmart the night before or go hungry.  I had to go on business and the company I was working for set me up there.  Won't go again unless they book the Holiday Inn only a mile away.  The rooms, however, seem very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r188633084-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>188633084</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Rip off</t>
+  </si>
+  <si>
+    <t>I booked the room through hotwire and i clarified 2 adults.  When i arrived they told me i would have to pay an extra 20 dollars for two beds.  I have never had that happen to me.  Nobody informed me prior to purchasing the room that two beds was extra.  the twenty bucks doesnt mean that much to me.  Its the principal</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r186849936-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>186849936</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprising</t>
+  </si>
+  <si>
+    <t>My wife and 2 kids stayed here for the weekend and I was pleasantly surprised how nice and clean this hotel was kept. When we came in we were greeted kindly by the receptionist and check in was rather quick. For the price, if you are looking for affordable nice clean and hotel to stay this is the best place to go. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2013</t>
+  </si>
+  <si>
+    <t>My wife and 2 kids stayed here for the weekend and I was pleasantly surprised how nice and clean this hotel was kept. When we came in we were greeted kindly by the receptionist and check in was rather quick. For the price, if you are looking for affordable nice clean and hotel to stay this is the best place to go. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r186748436-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>186748436</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Staff is on par with hotels of higher star ratings</t>
+  </si>
+  <si>
+    <t>I travel extensively for both business and pleasure.  I booked this location because it was in walking distance with 3 days of meetings at Wal-mart.  I would stay there again because of the property and most of all because of the staff.  They genuinely care and take pride in their jobs. (Take a look at the responses to comments below)  The rooms were clean and quiet.  The desk was large with a comfortable chair to work with. The bed and bath were very good.  I did not encounter any challenges while I was there but feel confident if something should have come up it would have been taken care of in a proper manner.  The lobby, hall ways and overall property was kept very clean.  Thank you to all.  DaleMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I travel extensively for both business and pleasure.  I booked this location because it was in walking distance with 3 days of meetings at Wal-mart.  I would stay there again because of the property and most of all because of the staff.  They genuinely care and take pride in their jobs. (Take a look at the responses to comments below)  The rooms were clean and quiet.  The desk was large with a comfortable chair to work with. The bed and bath were very good.  I did not encounter any challenges while I was there but feel confident if something should have come up it would have been taken care of in a proper manner.  The lobby, hall ways and overall property was kept very clean.  Thank you to all.  DaleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r183396348-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>183396348</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel before, but on this trip stay experienced for the first time roaches in the bathroom. I think the hotel needs to be away of this since they are a hotel that allows food and cooking and that experience alone made this stay uncomfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel before, but on this trip stay experienced for the first time roaches in the bathroom. I think the hotel needs to be away of this since they are a hotel that allows food and cooking and that experience alone made this stay uncomfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r180754393-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>180754393</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Disappointing and Depressing</t>
+  </si>
+  <si>
+    <t>I stayed here with my wife and 4 kids and it was disappointing and depressing.  We stayed in 2 rooms; 3 per room.  I've stayed at at least 2 other Extended Stay America locations and this one was inferior.  I would not stay here again or recommend this location.  We ended up checking out and staying somewhere else.
+The rooms were depressing and dark.  The walls are plain with no artwork or decoration.  The blinds and bed covers were a dark brown - a color that might be good for handling a lot of wear and tear, but not cheerful colors.  The rooms also smaller than the other ESA locations we've stayed at.
+The staff was great at times and horrible at times.  The shower head in one room was really noisy and the drain was really slow the first night we stayed there.  We called the front desk and an employee came to check it out within 2 minutes and repairs were made the next morning - very impressive.  On the flip side, my wife went to ask for more bowls since there's only 1 per room and we needed a total of 6.  The employee initially would only give us 2 more even though we had 2 rooms and 6 people. It's not like we had 6 people into 1 room.  What's the point of staying in a place with a kitchen if they won't provide enough bowls...I stayed here with my wife and 4 kids and it was disappointing and depressing.  We stayed in 2 rooms; 3 per room.  I've stayed at at least 2 other Extended Stay America locations and this one was inferior.  I would not stay here again or recommend this location.  We ended up checking out and staying somewhere else.The rooms were depressing and dark.  The walls are plain with no artwork or decoration.  The blinds and bed covers were a dark brown - a color that might be good for handling a lot of wear and tear, but not cheerful colors.  The rooms also smaller than the other ESA locations we've stayed at.The staff was great at times and horrible at times.  The shower head in one room was really noisy and the drain was really slow the first night we stayed there.  We called the front desk and an employee came to check it out within 2 minutes and repairs were made the next morning - very impressive.  On the flip side, my wife went to ask for more bowls since there's only 1 per room and we needed a total of 6.  The employee initially would only give us 2 more even though we had 2 rooms and 6 people. It's not like we had 6 people into 1 room.  What's the point of staying in a place with a kitchen if they won't provide enough bowls to eat with?  After some "discussion," another employee stepped in and gave my wife the 4 bowl she asked for.Breakfast is provided, but simple and limited.  Coffee, instant oatmeal, packaged (not fresh) muffins and fruit - just like the picture on the ESA website.  At least the picture is accurate.There is NO pool at this location. One positive is that this location is very close to several food options - Starbucks, Chinese food, Japanese food, a sandwich place, Carl's Jr and Walmart is about 1 block away.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my wife and 4 kids and it was disappointing and depressing.  We stayed in 2 rooms; 3 per room.  I've stayed at at least 2 other Extended Stay America locations and this one was inferior.  I would not stay here again or recommend this location.  We ended up checking out and staying somewhere else.
+The rooms were depressing and dark.  The walls are plain with no artwork or decoration.  The blinds and bed covers were a dark brown - a color that might be good for handling a lot of wear and tear, but not cheerful colors.  The rooms also smaller than the other ESA locations we've stayed at.
+The staff was great at times and horrible at times.  The shower head in one room was really noisy and the drain was really slow the first night we stayed there.  We called the front desk and an employee came to check it out within 2 minutes and repairs were made the next morning - very impressive.  On the flip side, my wife went to ask for more bowls since there's only 1 per room and we needed a total of 6.  The employee initially would only give us 2 more even though we had 2 rooms and 6 people. It's not like we had 6 people into 1 room.  What's the point of staying in a place with a kitchen if they won't provide enough bowls...I stayed here with my wife and 4 kids and it was disappointing and depressing.  We stayed in 2 rooms; 3 per room.  I've stayed at at least 2 other Extended Stay America locations and this one was inferior.  I would not stay here again or recommend this location.  We ended up checking out and staying somewhere else.The rooms were depressing and dark.  The walls are plain with no artwork or decoration.  The blinds and bed covers were a dark brown - a color that might be good for handling a lot of wear and tear, but not cheerful colors.  The rooms also smaller than the other ESA locations we've stayed at.The staff was great at times and horrible at times.  The shower head in one room was really noisy and the drain was really slow the first night we stayed there.  We called the front desk and an employee came to check it out within 2 minutes and repairs were made the next morning - very impressive.  On the flip side, my wife went to ask for more bowls since there's only 1 per room and we needed a total of 6.  The employee initially would only give us 2 more even though we had 2 rooms and 6 people. It's not like we had 6 people into 1 room.  What's the point of staying in a place with a kitchen if they won't provide enough bowls to eat with?  After some "discussion," another employee stepped in and gave my wife the 4 bowl she asked for.Breakfast is provided, but simple and limited.  Coffee, instant oatmeal, packaged (not fresh) muffins and fruit - just like the picture on the ESA website.  At least the picture is accurate.There is NO pool at this location. One positive is that this location is very close to several food options - Starbucks, Chinese food, Japanese food, a sandwich place, Carl's Jr and Walmart is about 1 block away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r175596502-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>175596502</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay, close to Mall</t>
+  </si>
+  <si>
+    <t>We get there almost by 11 pm during delay of flight, go check in only take 2 minutes?? As told they don't have room available for 2 queens bed, but the will upgrade us to be a  suite (Kind bed with a sofa bed) of course I do not have choice. The room was clean and big, but the sofa bed was horrible, I need to take the mattress out and sleep on the floor. Next day went to front desk and ask for changing room. Unfortunately, they don't have any available. They put a panel under the sofa bed and make it harder with 2 extra mattress topper on the sofa bed mattress for us. Its better than sleep on the floor. They was very helpful and I believe they try the best as they could. Grab and go breakfast is OK, coffee, tea, muffin, energy bar and fruit. The staff was very polite and courteous, over all satisfied, I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2013</t>
+  </si>
+  <si>
+    <t>We get there almost by 11 pm during delay of flight, go check in only take 2 minutes?? As told they don't have room available for 2 queens bed, but the will upgrade us to be a  suite (Kind bed with a sofa bed) of course I do not have choice. The room was clean and big, but the sofa bed was horrible, I need to take the mattress out and sleep on the floor. Next day went to front desk and ask for changing room. Unfortunately, they don't have any available. They put a panel under the sofa bed and make it harder with 2 extra mattress topper on the sofa bed mattress for us. Its better than sleep on the floor. They was very helpful and I believe they try the best as they could. Grab and go breakfast is OK, coffee, tea, muffin, energy bar and fruit. The staff was very polite and courteous, over all satisfied, I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r165213016-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>165213016</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>You'll sleep here</t>
+  </si>
+  <si>
+    <t>Quiet location for the most part, not right off the freeway like most hotels.Across the street from Kings Hawaiian bakery factory you get the smell of fresh bread all day.Walmart is across the parking lot with a few fast food restaurants in the same shopping center. Not much else close by as far as sit down type restaurants. There is no daily maid service here, be prepared for that if staying more than one night.No complaints with anything. Can't beat it for the price.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r164948511-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>164948511</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>These rooms with full kitchens are as up-scale as the big names but at a FAR more reasonable price. We are always on a budget, as my husband travels for work months at a time, and having a full kitchen MORE than pays for itself. The staff here is top notch, and the manager, Flora, makes everyone feel like part of the family. I'm amazed to hear her chatting with each guest as they pass, knowing their work schedules, company and even what type of work they do! It's nice to feel like someone recognizes your hard work, even away from home. Flora and her staff deserve a big "thank you" and I hope corporate reads this.MoreShow less</t>
+  </si>
+  <si>
+    <t>These rooms with full kitchens are as up-scale as the big names but at a FAR more reasonable price. We are always on a budget, as my husband travels for work months at a time, and having a full kitchen MORE than pays for itself. The staff here is top notch, and the manager, Flora, makes everyone feel like part of the family. I'm amazed to hear her chatting with each guest as they pass, knowing their work schedules, company and even what type of work they do! It's nice to feel like someone recognizes your hard work, even away from home. Flora and her staff deserve a big "thank you" and I hope corporate reads this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r164660596-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>164660596</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Juliet R.  -Extended Stay Torrance Harbor Gateway..  best customer   service .</t>
+  </si>
+  <si>
+    <t>Evrytime we go out of town and evrytime we have friends and relatives that comes and visit. we always stay and check in at Extended stay America..although most of the staff are nice ..this one..in Torrance  Harbor Gateway..stands out the most...in customer service..the manager Flora and front desk staff.(Mario)  are very accomodating and .nice...this is the place where the staff will really make you feel at home...the rooms were clean and so with the kitchen.although this a a late review...(check in June 5)I want to thank the manager and staff ...for making us and our guest happy. comfortable and .satisfied evrytime they come and visit...THANKS !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r156319635-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>156319635</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Works for only one night too</t>
+  </si>
+  <si>
+    <t>We needed two rooms for a quick sleep between traveling from No Cal to the LA area for an event. This location was perfect for easy access to a wide variety of restaurants and a Walmart for an emergency purchase.Rooms were clean and spacious with nice kitchen amenities.. Staff was helpful notifying us of a Sat delivery even though we had checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded April 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2013</t>
+  </si>
+  <si>
+    <t>We needed two rooms for a quick sleep between traveling from No Cal to the LA area for an event. This location was perfect for easy access to a wide variety of restaurants and a Walmart for an emergency purchase.Rooms were clean and spacious with nice kitchen amenities.. Staff was helpful notifying us of a Sat delivery even though we had checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r152648381-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>152648381</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Home Away From Home !!!!</t>
+  </si>
+  <si>
+    <t>In 16 years of traveling for business this is the best hotel stay ever !!!! The manager Ms. Flora knows all her guest and treats them like family. The staff is very knowledgeable,friendly and follows their Manager by example. The property is maintained well and very safe!!!! I was a guest there for 3 months and enjoyed every day. I had 12 co workers staying there too and they all had wonderful compliments as well. I wish all the Hotels were as GREAT as this one ! Thanks again Ms.Flora and I will be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded March 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2013</t>
+  </si>
+  <si>
+    <t>In 16 years of traveling for business this is the best hotel stay ever !!!! The manager Ms. Flora knows all her guest and treats them like family. The staff is very knowledgeable,friendly and follows their Manager by example. The property is maintained well and very safe!!!! I was a guest there for 3 months and enjoyed every day. I had 12 co workers staying there too and they all had wonderful compliments as well. I wish all the Hotels were as GREAT as this one ! Thanks again Ms.Flora and I will be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r151781639-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>151781639</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>A staff that cares</t>
+  </si>
+  <si>
+    <t>I just like to saythank you to Flora and the staff for always making me feel welcome, I feel very relaxed when I stay at this extended stay, I never worry about my truck and my gear in it. I always get the rest I need, check in are painless as well as check outs and since I leave early in the mornings many of the times I know mey reciept will be in my e-mail that day. I have personally witnessed the staff go out of thier way for all guest they deal with. There is also so many chioces of palces to eat if you dont want to cok in your own room.  Thank you Miss Flora and the rest of you staff for making me always feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded February 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2013</t>
+  </si>
+  <si>
+    <t>I just like to saythank you to Flora and the staff for always making me feel welcome, I feel very relaxed when I stay at this extended stay, I never worry about my truck and my gear in it. I always get the rest I need, check in are painless as well as check outs and since I leave early in the mornings many of the times I know mey reciept will be in my e-mail that day. I have personally witnessed the staff go out of thier way for all guest they deal with. There is also so many chioces of palces to eat if you dont want to cok in your own room.  Thank you Miss Flora and the rest of you staff for making me always feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r145596922-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>145596922</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>I will defintly come back and visit the staff!!</t>
+  </si>
+  <si>
+    <t>Everything was neat and clean, stores accessible to you left and right, staff was very kind and friendly. They made me feel very welcome and wanted an worked with what I had to make things work out well. I wouldn't mind stopping to say hello to them! If you're looking for a great hotel make sure you check this one out! MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded November 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2012</t>
+  </si>
+  <si>
+    <t>Everything was neat and clean, stores accessible to you left and right, staff was very kind and friendly. They made me feel very welcome and wanted an worked with what I had to make things work out well. I wouldn't mind stopping to say hello to them! If you're looking for a great hotel make sure you check this one out! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r145426621-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>145426621</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>A relaxing stay</t>
+  </si>
+  <si>
+    <t>I was a little worried about finding a location where I felt safe since I didn't know the area all that well and I was pleasantly surprised at the hotel and the surrounding area. I felt very safe and the room and the hotel itself was very relaxing. Everything was so clean and fresh. The little kitchen was a plus and would be a great deal with an extended stay. I will be booking at this hotel again, for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>I was a little worried about finding a location where I felt safe since I didn't know the area all that well and I was pleasantly surprised at the hotel and the surrounding area. I felt very safe and the room and the hotel itself was very relaxing. Everything was so clean and fresh. The little kitchen was a plus and would be a great deal with an extended stay. I will be booking at this hotel again, for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r144648393-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>144648393</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>On business Trip</t>
+  </si>
+  <si>
+    <t>I stayed here twice already both times for 5 business days Monday thru Friday. The staff is very helpful and the location is close to my customer place. Rooms are OK not so great but comfortable for short business trips. very close to restaurants like taco bell &amp; subway. Right behind the property there is a walmart for any basic needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded November 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here twice already both times for 5 business days Monday thru Friday. The staff is very helpful and the location is close to my customer place. Rooms are OK not so great but comfortable for short business trips. very close to restaurants like taco bell &amp; subway. Right behind the property there is a walmart for any basic needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r134956821-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>134956821</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>My Favorite Place To Stay When Visiting Southern California</t>
+  </si>
+  <si>
+    <t>I've stayed here plenty times before and never thought to write a review on TripAdvisor until my last stay at this ESA. I've always had great experiences here and very rarely, some mediocre ones but usually not due to staff...but even so, we are all human beings and mistakes happen. However you can always tell that they go out of their way to make sure you are comfortable...Flora and Mario are amazing and so are Angel and Amy (I think that's her name...so sorry if I got it wrong!). The rooms are clean, the bed/bedding is average but much improved since the renovation, the internet works just fine for free, the TV has all my favorite channels, the water is hot, and the water pressure is good. Stores and food within walking distance (less than 3 minutes walk!), how much more convenient can it get? Close to THREE freeways: 405, 91, and 110. The area is safe and I've never had any problems, but of course, always practice smart and safe traveling.Look forward to staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded July 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed here plenty times before and never thought to write a review on TripAdvisor until my last stay at this ESA. I've always had great experiences here and very rarely, some mediocre ones but usually not due to staff...but even so, we are all human beings and mistakes happen. However you can always tell that they go out of their way to make sure you are comfortable...Flora and Mario are amazing and so are Angel and Amy (I think that's her name...so sorry if I got it wrong!). The rooms are clean, the bed/bedding is average but much improved since the renovation, the internet works just fine for free, the TV has all my favorite channels, the water is hot, and the water pressure is good. Stores and food within walking distance (less than 3 minutes walk!), how much more convenient can it get? Close to THREE freeways: 405, 91, and 110. The area is safe and I've never had any problems, but of course, always practice smart and safe traveling.Look forward to staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r134874333-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>134874333</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Were Not Told of Very High Pet Fees</t>
+  </si>
+  <si>
+    <t>We live in Southern California and would normally not be staying in a hotel in the area, but since we were having our floors redone, we had to be out of the house for several days. We looked for a pet-friendly hotel, but our first choice was booked and they directed us to this hotel. My husband made the reservation without being told that pets are $25 per night per pet (we have three cats under 10 pounds each). I guess he assumed the cost was the same as the previous hotel ($25 per night, period). We were informed when we checked in; we were unhappy about this, but felt we didn't have a choice, not with three cats. We were put on the third floor; the hallways stank of...I'm not sure what. Possibly old Chinese food. We were in a non-smoking room, but I saw at least one cigarette burn on a counter. The room was okay; nothing horrible and nothing special. I didn't think the room was that great of value, especially since there was no maid service and the extra fees we paid for our cats who did no damage and always used the litter box we brought. Can you tell I'm still burned about that? When they say there are toiletries, they mean one little bar of soap for the shower and one for washing hands. That's it for toiletries--no lotion, no shampoo, no conditioner. There's...We live in Southern California and would normally not be staying in a hotel in the area, but since we were having our floors redone, we had to be out of the house for several days. We looked for a pet-friendly hotel, but our first choice was booked and they directed us to this hotel. My husband made the reservation without being told that pets are $25 per night per pet (we have three cats under 10 pounds each). I guess he assumed the cost was the same as the previous hotel ($25 per night, period). We were informed when we checked in; we were unhappy about this, but felt we didn't have a choice, not with three cats. We were put on the third floor; the hallways stank of...I'm not sure what. Possibly old Chinese food. We were in a non-smoking room, but I saw at least one cigarette burn on a counter. The room was okay; nothing horrible and nothing special. I didn't think the room was that great of value, especially since there was no maid service and the extra fees we paid for our cats who did no damage and always used the litter box we brought. Can you tell I'm still burned about that? When they say there are toiletries, they mean one little bar of soap for the shower and one for washing hands. That's it for toiletries--no lotion, no shampoo, no conditioner. There's also no hair dryer, although there was an iron and ironing board. Luckily I read people's reviews here or I would have taken for granted that those things were there. The Grab &amp; Go Breakfast was okay--coffee, packaged pastry (like a muffin), oatmeal, and a piece of fruit. I didn't bother after the first day.The smell of Hawaiian bread was wonderful (the hotel is across the street from the factory that makes it), there are a few fast food places within walking distance, plus the hotel is very close to the 405 Freeway, which is convenient. All in all, it was okay. I never met Flora or Mario, so I can't comment on how great they are.MoreShow less</t>
+  </si>
+  <si>
+    <t>We live in Southern California and would normally not be staying in a hotel in the area, but since we were having our floors redone, we had to be out of the house for several days. We looked for a pet-friendly hotel, but our first choice was booked and they directed us to this hotel. My husband made the reservation without being told that pets are $25 per night per pet (we have three cats under 10 pounds each). I guess he assumed the cost was the same as the previous hotel ($25 per night, period). We were informed when we checked in; we were unhappy about this, but felt we didn't have a choice, not with three cats. We were put on the third floor; the hallways stank of...I'm not sure what. Possibly old Chinese food. We were in a non-smoking room, but I saw at least one cigarette burn on a counter. The room was okay; nothing horrible and nothing special. I didn't think the room was that great of value, especially since there was no maid service and the extra fees we paid for our cats who did no damage and always used the litter box we brought. Can you tell I'm still burned about that? When they say there are toiletries, they mean one little bar of soap for the shower and one for washing hands. That's it for toiletries--no lotion, no shampoo, no conditioner. There's...We live in Southern California and would normally not be staying in a hotel in the area, but since we were having our floors redone, we had to be out of the house for several days. We looked for a pet-friendly hotel, but our first choice was booked and they directed us to this hotel. My husband made the reservation without being told that pets are $25 per night per pet (we have three cats under 10 pounds each). I guess he assumed the cost was the same as the previous hotel ($25 per night, period). We were informed when we checked in; we were unhappy about this, but felt we didn't have a choice, not with three cats. We were put on the third floor; the hallways stank of...I'm not sure what. Possibly old Chinese food. We were in a non-smoking room, but I saw at least one cigarette burn on a counter. The room was okay; nothing horrible and nothing special. I didn't think the room was that great of value, especially since there was no maid service and the extra fees we paid for our cats who did no damage and always used the litter box we brought. Can you tell I'm still burned about that? When they say there are toiletries, they mean one little bar of soap for the shower and one for washing hands. That's it for toiletries--no lotion, no shampoo, no conditioner. There's also no hair dryer, although there was an iron and ironing board. Luckily I read people's reviews here or I would have taken for granted that those things were there. The Grab &amp; Go Breakfast was okay--coffee, packaged pastry (like a muffin), oatmeal, and a piece of fruit. I didn't bother after the first day.The smell of Hawaiian bread was wonderful (the hotel is across the street from the factory that makes it), there are a few fast food places within walking distance, plus the hotel is very close to the 405 Freeway, which is convenient. All in all, it was okay. I never met Flora or Mario, so I can't comment on how great they are.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r134743892-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>134743892</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>The front desk, Mario, was friendly every time we spoke him and kind.</t>
+  </si>
+  <si>
+    <t>Of course the bed squeaked a bit but the over all experience was nice! I will book an Extended Stay for future vacations and trips! The staff, Mario, was very helpful and friendly. The room was clean and there air was Fresh. MoreShow less</t>
+  </si>
+  <si>
+    <t>Of course the bed squeaked a bit but the over all experience was nice! I will book an Extended Stay for future vacations and trips! The staff, Mario, was very helpful and friendly. The room was clean and there air was Fresh. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r132894465-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>132894465</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>Best Extended Stay in the area</t>
+  </si>
+  <si>
+    <t>I have stayed at the other extended stay America's by company error, I request this one due to the Manager (Flora) and her willingness to show you the rooms available.  From day one herself and the staff are always pleasant and go out of there way to accomadate you.  Not to mention juggling dates of arrival and departure to meet your needs Awesome Staff and Manager. Lot of places to eat within walking distance including everyones favorite store Wally World.Thank you for everything AndyMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Torrance Harbor Gateway, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at the other extended stay America's by company error, I request this one due to the Manager (Flora) and her willingness to show you the rooms available.  From day one herself and the staff are always pleasant and go out of there way to accomadate you.  Not to mention juggling dates of arrival and departure to meet your needs Awesome Staff and Manager. Lot of places to eat within walking distance including everyones favorite store Wally World.Thank you for everything AndyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r132449207-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>132449207</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>It is what it is</t>
+  </si>
+  <si>
+    <t>Convenient location, rooms are maintained but showing a little wear. No shampoo is a downer. Coffee and a grab-and-go breakfast bar in the morning is nice. It is an extended stay hotel and amenities aren't meant to dazzle. It is what it is.MoreShow less</t>
+  </si>
+  <si>
+    <t>Convenient location, rooms are maintained but showing a little wear. No shampoo is a downer. Coffee and a grab-and-go breakfast bar in the morning is nice. It is an extended stay hotel and amenities aren't meant to dazzle. It is what it is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r131241607-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>131241607</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Very Pleasant Stay!!</t>
+  </si>
+  <si>
+    <t>After much research I decided to stayed at ESA Harbor Gateway with my pet for 10 days.  The reservation was flawless. Flora, the Manager was welcoming before and during my entire stay; she was an absolute delight to be around.  She was kind and professional always inquiring if everything was okay for me.  In fact, the entire staff including Mario and Angel were so courteous and polite and I was always greeted by a smile. The hotel's grounds were nicely manicured and clean; my room was spotless, clean and the kitchen with a full size fridge came in handy. The location was perfect; there was a Walmart directly in the back of the hotel.  There were many fast food establishments around the corner and a short distance away were the many malls including Del Amo and the South Bay Galleria.  This ESA location was better than the others listed around the area as far as the amenities available.  The parking lot was well lit; the key entry system was securing and I felt safe the entire time.  King's Hawaiian Bakery Headquarters was directly opposite the hotel so you could smell the baked goods 24/7.  Too bad you couldn't walk across and buy from them, but their "Local Place Restaurant" is less than a mile away off Western Ave and a great food find!  Freeway access to the 405 and 110 was easy and just a 5-6 mile drive down 190th...After much research I decided to stayed at ESA Harbor Gateway with my pet for 10 days.  The reservation was flawless. Flora, the Manager was welcoming before and during my entire stay; she was an absolute delight to be around.  She was kind and professional always inquiring if everything was okay for me.  In fact, the entire staff including Mario and Angel were so courteous and polite and I was always greeted by a smile. The hotel's grounds were nicely manicured and clean; my room was spotless, clean and the kitchen with a full size fridge came in handy. The location was perfect; there was a Walmart directly in the back of the hotel.  There were many fast food establishments around the corner and a short distance away were the many malls including Del Amo and the South Bay Galleria.  This ESA location was better than the others listed around the area as far as the amenities available.  The parking lot was well lit; the key entry system was securing and I felt safe the entire time.  King's Hawaiian Bakery Headquarters was directly opposite the hotel so you could smell the baked goods 24/7.  Too bad you couldn't walk across and buy from them, but their "Local Place Restaurant" is less than a mile away off Western Ave and a great food find!  Freeway access to the 405 and 110 was easy and just a 5-6 mile drive down 190th would take you right down to the Redondo Beach Pier. All in all, ESA Harbor Gateway was a great place to stay and wouldn't hesitate to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>After much research I decided to stayed at ESA Harbor Gateway with my pet for 10 days.  The reservation was flawless. Flora, the Manager was welcoming before and during my entire stay; she was an absolute delight to be around.  She was kind and professional always inquiring if everything was okay for me.  In fact, the entire staff including Mario and Angel were so courteous and polite and I was always greeted by a smile. The hotel's grounds were nicely manicured and clean; my room was spotless, clean and the kitchen with a full size fridge came in handy. The location was perfect; there was a Walmart directly in the back of the hotel.  There were many fast food establishments around the corner and a short distance away were the many malls including Del Amo and the South Bay Galleria.  This ESA location was better than the others listed around the area as far as the amenities available.  The parking lot was well lit; the key entry system was securing and I felt safe the entire time.  King's Hawaiian Bakery Headquarters was directly opposite the hotel so you could smell the baked goods 24/7.  Too bad you couldn't walk across and buy from them, but their "Local Place Restaurant" is less than a mile away off Western Ave and a great food find!  Freeway access to the 405 and 110 was easy and just a 5-6 mile drive down 190th...After much research I decided to stayed at ESA Harbor Gateway with my pet for 10 days.  The reservation was flawless. Flora, the Manager was welcoming before and during my entire stay; she was an absolute delight to be around.  She was kind and professional always inquiring if everything was okay for me.  In fact, the entire staff including Mario and Angel were so courteous and polite and I was always greeted by a smile. The hotel's grounds were nicely manicured and clean; my room was spotless, clean and the kitchen with a full size fridge came in handy. The location was perfect; there was a Walmart directly in the back of the hotel.  There were many fast food establishments around the corner and a short distance away were the many malls including Del Amo and the South Bay Galleria.  This ESA location was better than the others listed around the area as far as the amenities available.  The parking lot was well lit; the key entry system was securing and I felt safe the entire time.  King's Hawaiian Bakery Headquarters was directly opposite the hotel so you could smell the baked goods 24/7.  Too bad you couldn't walk across and buy from them, but their "Local Place Restaurant" is less than a mile away off Western Ave and a great food find!  Freeway access to the 405 and 110 was easy and just a 5-6 mile drive down 190th would take you right down to the Redondo Beach Pier. All in all, ESA Harbor Gateway was a great place to stay and wouldn't hesitate to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r126276104-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>126276104</t>
+  </si>
+  <si>
+    <t>03/18/2012</t>
+  </si>
+  <si>
+    <t>Good deal and good place to house visitors</t>
+  </si>
+  <si>
+    <t>Big, clean room with kitchenette. Free parking and very close to 405 freeway, a Walmart and chain restaurants. They don't do daily housekeeping but who cares with the savings you get especially by booking online. It seems like a hotel for weekly use by business travelers but also good if you have out of town family visiting.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r125062004-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>125062004</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Always a pleasent stay.</t>
+  </si>
+  <si>
+    <t>Every time I'm in So Ca I stay here at ESA Harbor Gateway. Great location for me, only 11 min. from LAX, and only a few blocks connecting with 3 major freeways.Manager Flora, and her staff always very pleasant and extra helpful. The rooms have just been totally renovated, now with large flat screen TV's, and free high-speed internet.My home away from home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r124690533-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>124690533</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Kudos for Flora &amp; her Staff in ESA, Torrance</t>
+  </si>
+  <si>
+    <t>Me and my team have been staying at this ESA for two years in a row and i can tell you that we have been really taken good care by Flora (Manager) and her Staff. These guys do an excellent job of making sure that our stay is comfortable. First time i came here with my wife and son (3 years old) and stayed here for a month. It is a very safe &amp; secure place.The best part is that it is just 2 minutes walk to Wal Mart. Their facility (rooms, washrooms etc) are very clean and the recent upgrade to the place has done wonders to it. Just 10 minutes drive to Hawthorne Blvd and all the malls (Del Amo, Macy's, JC Penny, Target, Ross etc). Just 2 minutes drive from 405 N &amp; S if you want to go to downtown LA or otherwise.For me it was very convenient as well, since i was on a business trip, that my office facility is just 5 minutes drive from ESA.All in all this is highly recommended place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Me and my team have been staying at this ESA for two years in a row and i can tell you that we have been really taken good care by Flora (Manager) and her Staff. These guys do an excellent job of making sure that our stay is comfortable. First time i came here with my wife and son (3 years old) and stayed here for a month. It is a very safe &amp; secure place.The best part is that it is just 2 minutes walk to Wal Mart. Their facility (rooms, washrooms etc) are very clean and the recent upgrade to the place has done wonders to it. Just 10 minutes drive to Hawthorne Blvd and all the malls (Del Amo, Macy's, JC Penny, Target, Ross etc). Just 2 minutes drive from 405 N &amp; S if you want to go to downtown LA or otherwise.For me it was very convenient as well, since i was on a business trip, that my office facility is just 5 minutes drive from ESA.All in all this is highly recommended place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r123684918-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>123684918</t>
+  </si>
+  <si>
+    <t>01/27/2012</t>
+  </si>
+  <si>
+    <t>Helpful Front office staff, average stay...</t>
+  </si>
+  <si>
+    <t>It is an average hotel, a bit far from the airport and other places I had to visit. I had a very good impression of the helpful  front office staff.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r119517829-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>119517829</t>
+  </si>
+  <si>
+    <t>10/20/2011</t>
+  </si>
+  <si>
+    <t>The people were friendly. The room was fairly clean, but the kitchenette smelled. Good location. In effort to cut costs, they do not offer customary items in your room -  need shampoo, you  have to go down to the desk and ask for it. Really? I understand cutting costs, but it's a little disappointing that customary items are now only offered upon request. Hotel is pet friendly.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r119343990-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>119343990</t>
+  </si>
+  <si>
+    <t>10/15/2011</t>
+  </si>
+  <si>
+    <t>excellent but far away</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights here and we were very satisfied with the apartment and the staff (FLORA the manager is a super and helpful lady) Only problem was the transportation since we were travelling by public bus. Torrance transit is so unreliable as friendly the drivers are. We had to wait more than half an hour every time to take a ride and then have a pleasant conversation with the drivers. One of them actually gave us a "siteseeing tour." Please note that the Torrance transit bus 6 is out of service on Weekends.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r115469506-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>115469506</t>
+  </si>
+  <si>
+    <t>07/17/2011</t>
+  </si>
+  <si>
+    <t>My Second Home</t>
+  </si>
+  <si>
+    <t>Flora is an excellent manager and knows all the needs of the guest very well. She is very friendly and helpful. Extended Stay - Torrance CA is just like my second home.The staff is so co-operative and friendly. Thanks for everything..</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r90691231-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>90691231</t>
+  </si>
+  <si>
+    <t>12/25/2010</t>
+  </si>
+  <si>
+    <t>Cheaper than others but basic quality can still be maintained especially cleanness</t>
+  </si>
+  <si>
+    <t>I traveled to LA from AZ and booked this hotel. I stayed in Extended stay Anaheim for first 2 days and came here for last 2 days. I booked signature style room (paid extra $10/day) . So reached hotel at 9:00 in the night after full day at Universal Studio. Check-in was smooth, went in and found no hangers and no knife (this is kitchen included room). Came back to reception and she said she will ask it tomorrow???? So self catering kitchen and no knife and i had to wait over night, i found that weird. Anyway signature style did not impress me much as i did not find anything special. Next day, my son found an empty Macdonald drink plastic glass means the house was not cleaned at all. Kitchen has only 2 spoon and 2 fork and restroom opening is just in front of kitchen which i found very awakword. I paid $192 for 2 nights and no breakfast included and internet was extra $5 and quality was pretty bad. I would not say that do not stay in the hotel but I would prefer Marriott kitchen included rooms as the quality is awasome and breakfast is included and the internet is free too and that too for $89 +tax which is almost saem quality. Personally, we were not happy with the hotel and will not stay in this again/RgdsDMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>I traveled to LA from AZ and booked this hotel. I stayed in Extended stay Anaheim for first 2 days and came here for last 2 days. I booked signature style room (paid extra $10/day) . So reached hotel at 9:00 in the night after full day at Universal Studio. Check-in was smooth, went in and found no hangers and no knife (this is kitchen included room). Came back to reception and she said she will ask it tomorrow???? So self catering kitchen and no knife and i had to wait over night, i found that weird. Anyway signature style did not impress me much as i did not find anything special. Next day, my son found an empty Macdonald drink plastic glass means the house was not cleaned at all. Kitchen has only 2 spoon and 2 fork and restroom opening is just in front of kitchen which i found very awakword. I paid $192 for 2 nights and no breakfast included and internet was extra $5 and quality was pretty bad. I would not say that do not stay in the hotel but I would prefer Marriott kitchen included rooms as the quality is awasome and breakfast is included and the internet is free too and that too for $89 +tax which is almost saem quality. Personally, we were not happy with the hotel and will not stay in this again/RgdsDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r87229068-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>87229068</t>
+  </si>
+  <si>
+    <t>11/15/2010</t>
+  </si>
+  <si>
+    <t>here for 2 month and its Fantastic</t>
+  </si>
+  <si>
+    <t>It great here i've been in this hotel for 4 weeks so far and got 3 weeks left  i'm working in the area so the location is perfect for me, the staff are friendly and helpful, because i'm staying for so long i got a better rate $48 a night and a room upgrade,cleaners only come in once a week but they will change you towels when ever you need them done , massive Wall mart , starbucks and lots of food places walking distance like 3mins walki would defo stay here again</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r66785622-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>66785622</t>
+  </si>
+  <si>
+    <t>06/07/2010</t>
+  </si>
+  <si>
+    <t>Excellent service, excellent room</t>
+  </si>
+  <si>
+    <t>I stayed here one night with a baby, a toddler, and my husband.  I arrived without my husband and the baby was crying and my toddler was acting crazy.  The staff immediately helped me.  They carried our things to the room, ensured the door key worked. I was highly impressed with the courteous staff and cleanliness of the room.  The room was also cheaper than most places around the area.  Next to the hotel is a Walmart and several places to eat.  You can walk to any of them.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r46108008-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>46108008</t>
+  </si>
+  <si>
+    <t>10/07/2009</t>
+  </si>
+  <si>
+    <t>Acceptable for the money</t>
+  </si>
+  <si>
+    <t>I spent a couple nights when I had some business to conduct.  No complaints but it is basic, nothing more.  I'd describe the Extended Stay chain as akin to Motel 6, except Extended Stay has a little kitchenette in each room (without oven - only a microwave, refrig, and stove).  For this location, the room was clean and reasonably quiet.  The area surrounding the hotel is safe (if not exciting).  There are restaurants nearby.  It was inexpensive compared to the alternatives.  If you're just looking for an acceptable place to sleep in a safe neighborhood, this place will work for you.  But, if you're looking for any frills you should go elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I spent a couple nights when I had some business to conduct.  No complaints but it is basic, nothing more.  I'd describe the Extended Stay chain as akin to Motel 6, except Extended Stay has a little kitchenette in each room (without oven - only a microwave, refrig, and stove).  For this location, the room was clean and reasonably quiet.  The area surrounding the hotel is safe (if not exciting).  There are restaurants nearby.  It was inexpensive compared to the alternatives.  If you're just looking for an acceptable place to sleep in a safe neighborhood, this place will work for you.  But, if you're looking for any frills you should go elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r27326049-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>27326049</t>
+  </si>
+  <si>
+    <t>04/02/2009</t>
+  </si>
+  <si>
+    <t>Hidden Gem!!!</t>
+  </si>
+  <si>
+    <t>I went to Hotels.com and found Extended Stay Hotels, but they weren't rated very well but still tried they for their prices and I was amazed.  Rates are GREAT!  Plus the room's are PLUSH!</t>
+  </si>
+  <si>
+    <t>August 2006</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2636,5604 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s">
+        <v>252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>262</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>263</v>
+      </c>
+      <c r="X27" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>272</v>
+      </c>
+      <c r="X28" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" t="s">
+        <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" t="s">
+        <v>279</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>280</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>281</v>
+      </c>
+      <c r="X29" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30" t="s">
+        <v>288</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>289</v>
+      </c>
+      <c r="O30" t="s">
+        <v>290</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>292</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>296</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>297</v>
+      </c>
+      <c r="X31" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>305</v>
+      </c>
+      <c r="O32" t="s">
+        <v>290</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" t="s">
+        <v>311</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>312</v>
+      </c>
+      <c r="O33" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>314</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>312</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>322</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>323</v>
+      </c>
+      <c r="X35" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>331</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>340</v>
+      </c>
+      <c r="X37" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>348</v>
+      </c>
+      <c r="X38" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>356</v>
+      </c>
+      <c r="X39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>360</v>
+      </c>
+      <c r="J40" t="s">
+        <v>361</v>
+      </c>
+      <c r="K40" t="s">
+        <v>362</v>
+      </c>
+      <c r="L40" t="s">
+        <v>363</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>364</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>365</v>
+      </c>
+      <c r="X40" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>382</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>383</v>
+      </c>
+      <c r="X42" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>387</v>
+      </c>
+      <c r="J43" t="s">
+        <v>388</v>
+      </c>
+      <c r="K43" t="s">
+        <v>389</v>
+      </c>
+      <c r="L43" t="s">
+        <v>390</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>391</v>
+      </c>
+      <c r="X43" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>394</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>395</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+      <c r="K44" t="s">
+        <v>397</v>
+      </c>
+      <c r="L44" t="s">
+        <v>398</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>364</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>399</v>
+      </c>
+      <c r="X44" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" t="s">
+        <v>404</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45" t="s">
+        <v>406</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>408</v>
+      </c>
+      <c r="X45" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>412</v>
+      </c>
+      <c r="J46" t="s">
+        <v>413</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>407</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>417</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>418</v>
+      </c>
+      <c r="J47" t="s">
+        <v>419</v>
+      </c>
+      <c r="K47" t="s">
+        <v>420</v>
+      </c>
+      <c r="L47" t="s">
+        <v>421</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>422</v>
+      </c>
+      <c r="X47" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>426</v>
+      </c>
+      <c r="J48" t="s">
+        <v>427</v>
+      </c>
+      <c r="K48" t="s">
+        <v>428</v>
+      </c>
+      <c r="L48" t="s">
+        <v>429</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>430</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>431</v>
+      </c>
+      <c r="X48" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>434</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>435</v>
+      </c>
+      <c r="J49" t="s">
+        <v>436</v>
+      </c>
+      <c r="K49" t="s">
+        <v>437</v>
+      </c>
+      <c r="L49" t="s">
+        <v>438</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>439</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>440</v>
+      </c>
+      <c r="X49" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>444</v>
+      </c>
+      <c r="J50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K50" t="s">
+        <v>446</v>
+      </c>
+      <c r="L50" t="s">
+        <v>447</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>448</v>
+      </c>
+      <c r="X50" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>451</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>452</v>
+      </c>
+      <c r="J51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K51" t="s">
+        <v>454</v>
+      </c>
+      <c r="L51" t="s">
+        <v>455</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>456</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>457</v>
+      </c>
+      <c r="X51" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>460</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>461</v>
+      </c>
+      <c r="J52" t="s">
+        <v>462</v>
+      </c>
+      <c r="K52" t="s">
+        <v>463</v>
+      </c>
+      <c r="L52" t="s">
+        <v>464</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>465</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>467</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>468</v>
+      </c>
+      <c r="J53" t="s">
+        <v>469</v>
+      </c>
+      <c r="K53" t="s">
+        <v>470</v>
+      </c>
+      <c r="L53" t="s">
+        <v>471</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>472</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>474</v>
+      </c>
+      <c r="K54" t="s">
+        <v>475</v>
+      </c>
+      <c r="L54" t="s">
+        <v>476</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>477</v>
+      </c>
+      <c r="X54" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>480</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>481</v>
+      </c>
+      <c r="J55" t="s">
+        <v>482</v>
+      </c>
+      <c r="K55" t="s">
+        <v>483</v>
+      </c>
+      <c r="L55" t="s">
+        <v>484</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>485</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>488</v>
+      </c>
+      <c r="J56" t="s">
+        <v>489</v>
+      </c>
+      <c r="K56" t="s">
+        <v>490</v>
+      </c>
+      <c r="L56" t="s">
+        <v>491</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>492</v>
+      </c>
+      <c r="O56" t="s">
+        <v>290</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>493</v>
+      </c>
+      <c r="X56" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>497</v>
+      </c>
+      <c r="J57" t="s">
+        <v>498</v>
+      </c>
+      <c r="K57" t="s">
+        <v>499</v>
+      </c>
+      <c r="L57" t="s">
+        <v>500</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>492</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>503</v>
+      </c>
+      <c r="J58" t="s">
+        <v>504</v>
+      </c>
+      <c r="K58" t="s">
+        <v>505</v>
+      </c>
+      <c r="L58" t="s">
+        <v>506</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>507</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>508</v>
+      </c>
+      <c r="X58" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>511</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>512</v>
+      </c>
+      <c r="J59" t="s">
+        <v>513</v>
+      </c>
+      <c r="K59" t="s">
+        <v>514</v>
+      </c>
+      <c r="L59" t="s">
+        <v>515</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>516</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>517</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>518</v>
+      </c>
+      <c r="J60" t="s">
+        <v>519</v>
+      </c>
+      <c r="K60" t="s">
+        <v>520</v>
+      </c>
+      <c r="L60" t="s">
+        <v>521</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>516</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>523</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>524</v>
+      </c>
+      <c r="J61" t="s">
+        <v>525</v>
+      </c>
+      <c r="K61" t="s">
+        <v>526</v>
+      </c>
+      <c r="L61" t="s">
+        <v>527</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>516</v>
+      </c>
+      <c r="O61" t="s">
+        <v>131</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>528</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>529</v>
+      </c>
+      <c r="J62" t="s">
+        <v>530</v>
+      </c>
+      <c r="K62" t="s">
+        <v>531</v>
+      </c>
+      <c r="L62" t="s">
+        <v>532</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>533</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>534</v>
+      </c>
+      <c r="X62" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K63" t="s">
+        <v>540</v>
+      </c>
+      <c r="L63" t="s">
+        <v>541</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>542</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X63" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>546</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>547</v>
+      </c>
+      <c r="J64" t="s">
+        <v>548</v>
+      </c>
+      <c r="K64" t="s">
+        <v>549</v>
+      </c>
+      <c r="L64" t="s">
+        <v>550</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>551</v>
+      </c>
+      <c r="O64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>552</v>
+      </c>
+      <c r="X64" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>555</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>556</v>
+      </c>
+      <c r="J65" t="s">
+        <v>557</v>
+      </c>
+      <c r="K65" t="s">
+        <v>558</v>
+      </c>
+      <c r="L65" t="s">
+        <v>559</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>560</v>
+      </c>
+      <c r="X65" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>563</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>564</v>
+      </c>
+      <c r="J66" t="s">
+        <v>565</v>
+      </c>
+      <c r="K66" t="s">
+        <v>566</v>
+      </c>
+      <c r="L66" t="s">
+        <v>567</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>568</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>569</v>
+      </c>
+      <c r="X66" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>572</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>573</v>
+      </c>
+      <c r="J67" t="s">
+        <v>574</v>
+      </c>
+      <c r="K67" t="s">
+        <v>575</v>
+      </c>
+      <c r="L67" t="s">
+        <v>576</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>568</v>
+      </c>
+      <c r="O67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>577</v>
+      </c>
+      <c r="X67" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>580</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>581</v>
+      </c>
+      <c r="J68" t="s">
+        <v>582</v>
+      </c>
+      <c r="K68" t="s">
+        <v>583</v>
+      </c>
+      <c r="L68" t="s">
+        <v>584</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>585</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>586</v>
+      </c>
+      <c r="X68" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>589</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>590</v>
+      </c>
+      <c r="J69" t="s">
+        <v>591</v>
+      </c>
+      <c r="K69" t="s">
+        <v>592</v>
+      </c>
+      <c r="L69" t="s">
+        <v>593</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>585</v>
+      </c>
+      <c r="O69" t="s">
+        <v>290</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>586</v>
+      </c>
+      <c r="X69" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>595</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>596</v>
+      </c>
+      <c r="J70" t="s">
+        <v>597</v>
+      </c>
+      <c r="K70" t="s">
+        <v>598</v>
+      </c>
+      <c r="L70" t="s">
+        <v>599</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>586</v>
+      </c>
+      <c r="X70" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J71" t="s">
+        <v>603</v>
+      </c>
+      <c r="K71" t="s">
+        <v>604</v>
+      </c>
+      <c r="L71" t="s">
+        <v>605</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>606</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>607</v>
+      </c>
+      <c r="X71" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>610</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>611</v>
+      </c>
+      <c r="J72" t="s">
+        <v>612</v>
+      </c>
+      <c r="K72" t="s">
+        <v>613</v>
+      </c>
+      <c r="L72" t="s">
+        <v>614</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>606</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>607</v>
+      </c>
+      <c r="X72" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>616</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>617</v>
+      </c>
+      <c r="J73" t="s">
+        <v>618</v>
+      </c>
+      <c r="K73" t="s">
+        <v>619</v>
+      </c>
+      <c r="L73" t="s">
+        <v>620</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>621</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>607</v>
+      </c>
+      <c r="X73" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>623</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>624</v>
+      </c>
+      <c r="J74" t="s">
+        <v>625</v>
+      </c>
+      <c r="K74" t="s">
+        <v>626</v>
+      </c>
+      <c r="L74" t="s">
+        <v>627</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>628</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>630</v>
+      </c>
+      <c r="J75" t="s">
+        <v>631</v>
+      </c>
+      <c r="K75" t="s">
+        <v>632</v>
+      </c>
+      <c r="L75" t="s">
+        <v>633</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>628</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>634</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>635</v>
+      </c>
+      <c r="J76" t="s">
+        <v>636</v>
+      </c>
+      <c r="K76" t="s">
+        <v>637</v>
+      </c>
+      <c r="L76" t="s">
+        <v>638</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>639</v>
+      </c>
+      <c r="O76" t="s">
+        <v>72</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>641</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>642</v>
+      </c>
+      <c r="J77" t="s">
+        <v>643</v>
+      </c>
+      <c r="K77" t="s">
+        <v>644</v>
+      </c>
+      <c r="L77" t="s">
+        <v>645</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>646</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>647</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>648</v>
+      </c>
+      <c r="J78" t="s">
+        <v>649</v>
+      </c>
+      <c r="K78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L78" t="s">
+        <v>650</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>651</v>
+      </c>
+      <c r="O78" t="s">
+        <v>72</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>652</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>653</v>
+      </c>
+      <c r="J79" t="s">
+        <v>654</v>
+      </c>
+      <c r="K79" t="s">
+        <v>655</v>
+      </c>
+      <c r="L79" t="s">
+        <v>656</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>657</v>
+      </c>
+      <c r="O79" t="s">
+        <v>290</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>658</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>659</v>
+      </c>
+      <c r="J80" t="s">
+        <v>660</v>
+      </c>
+      <c r="K80" t="s">
+        <v>661</v>
+      </c>
+      <c r="L80" t="s">
+        <v>662</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>663</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>664</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>665</v>
+      </c>
+      <c r="J81" t="s">
+        <v>666</v>
+      </c>
+      <c r="K81" t="s">
+        <v>667</v>
+      </c>
+      <c r="L81" t="s">
+        <v>668</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>669</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>671</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>672</v>
+      </c>
+      <c r="J82" t="s">
+        <v>673</v>
+      </c>
+      <c r="K82" t="s">
+        <v>674</v>
+      </c>
+      <c r="L82" t="s">
+        <v>675</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>676</v>
+      </c>
+      <c r="O82" t="s">
+        <v>72</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>677</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>678</v>
+      </c>
+      <c r="J83" t="s">
+        <v>679</v>
+      </c>
+      <c r="K83" t="s">
+        <v>680</v>
+      </c>
+      <c r="L83" t="s">
+        <v>681</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>682</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>683</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>684</v>
+      </c>
+      <c r="J84" t="s">
+        <v>685</v>
+      </c>
+      <c r="K84" t="s">
+        <v>686</v>
+      </c>
+      <c r="L84" t="s">
+        <v>687</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>688</v>
+      </c>
+      <c r="O84" t="s">
+        <v>72</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38823</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>690</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>691</v>
+      </c>
+      <c r="J85" t="s">
+        <v>692</v>
+      </c>
+      <c r="K85" t="s">
+        <v>693</v>
+      </c>
+      <c r="L85" t="s">
+        <v>694</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>695</v>
+      </c>
+      <c r="O85" t="s">
+        <v>72</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>694</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_267.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_267.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="778">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Bree-lyn v</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Sheldia greated us at the desk witha smile, made the check in process super easy and was eager to assist us in any way. She made a tough trip easier with a few simple guestures. We would stay here again.More</t>
   </si>
   <si>
+    <t>Cody F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r569569357-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>I was staying at the ESA down the street from this one before I moved into this one. At the time I was pretty bummed to have to move and I felt it was a huge inconvenience since I had so much stuff but I quickly realized that this move was a blessing in disguise. You couldn’t pay me a million bucks to go back to the other one. Not only are the rooms bigger and spacious, they have a good quality leather lazy boy chair, a bathtub, a kitchen with countertops and a full size fridge, all of which the Gardena location lacked with their tiny rooms. In addition to those positives, the furniture and decor are a step up are with the times and give off a refreshingly modern feel. So props to this location for taking good care of the rooms and the building all together is in good shape, clean and well kept. The other nice thing about this location is that it is close to anything you might need without having to drive. There is a shopping center next door which includes a Walmart, Starbucks, Carl’s Jr., Dollar Tree, Office Depot and many other spots to eat and spend your dough. But my hands down favorite thing about this place is the staff, from the top down. Saul, the manager is a very nice man and seems to have a positive good working relationship with...I was staying at the ESA down the street from this one before I moved into this one. At the time I was pretty bummed to have to move and I felt it was a huge inconvenience since I had so much stuff but I quickly realized that this move was a blessing in disguise. You couldn’t pay me a million bucks to go back to the other one. Not only are the rooms bigger and spacious, they have a good quality leather lazy boy chair, a bathtub, a kitchen with countertops and a full size fridge, all of which the Gardena location lacked with their tiny rooms. In addition to those positives, the furniture and decor are a step up are with the times and give off a refreshingly modern feel. So props to this location for taking good care of the rooms and the building all together is in good shape, clean and well kept. The other nice thing about this location is that it is close to anything you might need without having to drive. There is a shopping center next door which includes a Walmart, Starbucks, Carl’s Jr., Dollar Tree, Office Depot and many other spots to eat and spend your dough. But my hands down favorite thing about this place is the staff, from the top down. Saul, the manager is a very nice man and seems to have a positive good working relationship with his employees and it shows by how happy they all are. Unlike most places where people work in customer service, these workers do not look like they hate their job, in face they appear to enjoy what they do and make you feel like they actually sincerely want to make sure you are taken care of and get what you need and more while you stay there. They made me feel so welcomed and at home right away, which I really needed after couch surfing for a couple months. NI have bad credit and even though I have been making enough to rent an apartment, no one will rent to me and I am at a point in life where I need a break from roomates. It is a bit pricey but there are coupon codes and certain refunds that significantly reduce the rate. Also if you consider, utilities are paid, you get cable TV and WiFi, and no first and lasts and deposit. And the staff just really makes this place worth it with their kindness sand helpfulness. And lastly but definitely not least, I have to give a shout out to one of the front desk ladies, Sheilda, who has been considerably extra helpful and amazing. She has gone above and beyond the standard to help me and make things easier during difficult times and brightened my day on numerous occasions and continues to do so and I owe many thank yous to her, especially for getting that new HUGE TV and cable going in my room. But all the ladies are great. Shout out also to my fave Latina mama that works graveyard ;).  &lt;3   #334More</t>
   </si>
   <si>
+    <t>gobrenda001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r565527264-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>The team that runs the front desk is fantastic! From the manager down,  each and everyone was very nice and helpful. We were there 2 months for my husband job, overall the place was very enjoyable. Not a 5 due to the cleaning crew, they seem to hit and miss, this may be due to the amount of rooms and number of cleaning staff. Had to request additional cleaning several times but the front desk always came through and made sure things were done. You know a good hotel by their staff, if something is wrong they will fix it...Such is this place. Would come again!More</t>
   </si>
   <si>
+    <t>melaniebW7581EU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r563080271-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>The smell of cigarettes and marijuana were so strong when we arrived it was overwhelming. Then within a short time of being in our room, the smoke and smell of marijuana came through our door. Our room was visibly unclean and left us concerned about the overall cleanliness.More</t>
   </si>
   <si>
+    <t>M111L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r561354208-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Couldn't be better.   Courtious staff.   Room was perfect.   Clean.   Fresh.   On time to check in.    Easy parking.    Reasonable rates.  Sheldia took care of everything perfectly ....     she's a great asset to the company.More</t>
   </si>
   <si>
+    <t>Dina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r560706685-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>The staff at this hotel is so amazing!!! I had the pleasure of meeting the General Manager Saul he went above and beyond to accommodate us bringing our entire family including our 11 month old Great Dane puppy. I cannot thank you enough on how kind you and your staff have been . Will definitely stay here again !!!!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r556984719-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>This was a great location to catch-up on rest. It was quiet and comfortable. I must say that customer service was above and beyond my expectations! Thanks for your hospitality and help Sheldia. It was a great stay. More</t>
   </si>
   <si>
+    <t>hartini88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r556125634-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>My booking on ExtendedStay America in Carson St. was declined somehow they do not have the room and they transfer me to ExtendedStay America in this location. Paulina is the one who help me to get the room that I need since I bring my Mom who is on wheelchair and baby so I need room with double bed. Thanks a lot Paulina!More</t>
   </si>
   <si>
+    <t>margojackson1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r555960783-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -393,6 +420,9 @@
     <t>Comfortable room.  Professional and friendly employees.  No smoking in the hotel.  Very quiet.  Stayed three nights.  Would recommend to anyone.  The room was clean.  Coffee, tea, granola bars and muffins from 6 to 9 every morning. The bed was very comfortable.More</t>
   </si>
   <si>
+    <t>Marlena D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r551621656-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Very quiet area. Very convenient check in. Staff always friendly. Would recommend to friends and family. Reasonable priced when use extended stay website. Always stay when come in town. Close to los AngelesMore</t>
   </si>
   <si>
+    <t>Kevin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r540094894-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>Nice and quiet. Close to some shopping and places to eat. Stephani the front desk clerk was very competent, efficient and pleasant. About 20 minutes away from LAX with no traffic. Worth the drive to not hear the airplanes.More</t>
   </si>
   <si>
+    <t>RsnapF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r531099133-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>The grab n go breakfast was not available at the time stated. The coffee pots were empty. All my dishes were never given to me. And I constantly had to make trips to the front desk. And was accused of smoking marijuana in a smoking room in which I do smoke Newport's so management refused to return my deposit to me in fact I NEVER smoked marijuana inside the room..More</t>
   </si>
   <si>
+    <t>843anirudhb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r511003035-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>Good to stay here need to improve the quality of Room and services provided to us. Very hard to book the room online through our International credit card always shown temporarily error. Rest all are fine location is excellent for my business More</t>
   </si>
   <si>
+    <t>mosphemales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r508419159-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>There are roaches and mildew in bathrooms. Parking lot is in safe and often broken into. Not at all worth $100+   no pool or other activity, bbq grills or picnic tables.  Overall not up to par.  Below standard. More</t>
   </si>
   <si>
+    <t>P2868AJjohny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r503055989-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>The room had layers of dirt on the headboard, dead bugs in the light fixtures and overall unclean feel. They keypads for the side entry &amp; laundry room did not work. the shower fixture was not secure to the wall. This was my first time at any extended stay and was not impressed; I expected better.More</t>
   </si>
   <si>
+    <t>Fei H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r499257467-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -582,6 +630,9 @@
     <t>The room is pretty good, the bed is confortable, only hallway has little smell, plus elevator is too old has squizing sound and slow.  Every room has kitchen, front desk offer utensils sets use for no extra charge.  "Breakfast" is very simple!! More</t>
   </si>
   <si>
+    <t>victorrM2909YU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r497828375-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -606,6 +657,9 @@
     <t>I didn¨t feel that that you reveice and excellent deal for the price you pay. Guest need to be pending for all details intead staff hotel. no clean, bad odor, no ditches, looks pretty old and no good maintenanceMore</t>
   </si>
   <si>
+    <t>DeeWhyte</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r495537329-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -630,6 +684,9 @@
     <t>This hotel was kind of grubby, room could have been cleaner, and was still expensive at $150 a night with the rate i got.  I wouldn't stay there again if i could help it.  It's in a good location for road warriors, but I'd find something else if possible.More</t>
   </si>
   <si>
+    <t>Relentless_explorer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r458939550-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Farhad510</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r452116970-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>Good place for family trip! You will feel at home with all the amenities.The room is spacious and it is clean. The staffs are very helpful and the nearby, you can find lots of stores and supermarkets.More</t>
   </si>
   <si>
+    <t>elhoss-masr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r439660733-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -700,6 +763,9 @@
   </si>
   <si>
     <t>the location of this hotel is not the greatest, however it is very close to the freeway and it is very quiet, the room is decent and and staff are helpful, they have room service once a week, make sure to remind front desk to clean your room as they tend to forget.room has a small kitchenette which was really helpful, there is a walmart in the back which is good for groceries and there are some close fast food joints for a quick bite.More</t>
+  </si>
+  <si>
+    <t>Greg K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r434860857-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
@@ -742,6 +808,9 @@
 It’s a wall mart next to this place and I will go buy some bleach and try to decontaminate my room. I am also looking to see how I can...This is the first time that I TRIED Extended Stay America. I will be working in the area for the next six to nine months and ESA sounded good. I have been in many places, many countries, many hotels but this one is the worst I have been in my life.First views coming into the hotel:Dirty entrance/carpet with dirt everywhereLooking on that I decided to stay seven days instead of nine. Thank God.  Going into the room:First impression. Dirty, filthy everything coming apart.Kitchen faucet, I am not sure is not tight to the sink (I got a video), refrigerator dirty, window curtain with huge yogurt? Stains, carpet filthy (I got to wear house shoes so nothing happen to me).I had to ask for dishes plates etc. since they had nothing inside. Cabinet drawings extremely dirty with huge stains, bed cover holes, closet space small and with four hangers inside (Extended stay? Imagine short stay)Bathroom mildew and shampoo small bottle missing 90%. Must be their recycling process.I did ask to come and fix the faucet but no maintenance people are available today. I must wait for Monday. I was told to move to another room but I do not want to repack everything.It’s a wall mart next to this place and I will go buy some bleach and try to decontaminate my room. I am also looking to see how I can cancel and move to a different place. What an experience.More</t>
   </si>
   <si>
+    <t>William D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r422714153-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -769,6 +838,9 @@
     <t>Great stay, clean, quiet rooms. Very good location, close to freeways, shopping, Walmart, etc..Very friendly staff, &amp; very helpful. Manager Saul, &amp; Assist Manager Andrew, always there with help &amp; advice.Every time I'm in town I stay here.More</t>
   </si>
   <si>
+    <t>Debbie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r405960596-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -784,6 +856,9 @@
     <t>check in was smooth and the gentleman at the counter was very friendly and helpful. the room was nice and the bed comfy. very clean and quiet. would stay there again. was happy that there were places you could walk to eat at.</t>
   </si>
   <si>
+    <t>Icewolf1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r384715386-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -811,6 +886,9 @@
     <t>Husbands company booked him into this property while we moved locations. So we had some time to evaluate the property. Our room was a corner room which had some extra space. If you can get one of these, you should, the extra windows allowed for a nice cross breeze.All of the facilities were well maintained and clean. We had no problems with anything, when something went wrong like the toilet backed up, they came up and fixed it within 10 minutes. The only ongoing problem, is the fire alarm going off, which shut down the elevator. This was from people cooking (and burning) their food. If you are unable to walk the stairs, make sure you specify to get a first floor room.The only other problem, is the hotel is directly across from the King's Hawaiian Bakery factory. It was amazing the first day, and the second. By the third day I was insane and had to buy some of the product. By the end of the stay, I don't know if I'll ever eat their product again I think the constant smell cured me. As others have stated, Wal-mart is adjacent to the property, blocks away from high quality Japanese dining, and other various restaurants. We would stay again.More</t>
   </si>
   <si>
+    <t>Dale K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r362512573-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -838,6 +916,9 @@
     <t>I hadn't stayed here before but I had business in the area so I gave it a try.  I arrived a bit early, 1:15.  The clerk told me my room wasn't ready and probably wouldn't be until 3:00 which is there standard check-in time.  I asked if he could have the maid clean my room next.  He said he would go check with house keeping.  He came back and said they will do it next but it won't be ready until 3:00.  Wow, it sure does take a long time to clean a room.  I asked for a coffee pot and some coffee.  She said she would bring the items up to me and she did that promptly.   The room was a standard ESA room and it appeared clean and the furniture and bedding not to worn.  The TV was a newer flat screen so that was nice.  When I opened the internet their "standard" came up with only two bars.  That was a bummer so I upgraded to the faster strength.  It gave me one more bar.  I didn't appreciate the long black hairs in the towels.  I didn't realize it but I had dropped a couple of ice cubes on the kitchen floor.  When I went back to get more ice a noticed small puddles on the floor so I took a wash cloth to wipe them up.  Oh oh, the cloth was black where I used it...I hadn't stayed here before but I had business in the area so I gave it a try.  I arrived a bit early, 1:15.  The clerk told me my room wasn't ready and probably wouldn't be until 3:00 which is there standard check-in time.  I asked if he could have the maid clean my room next.  He said he would go check with house keeping.  He came back and said they will do it next but it won't be ready until 3:00.  Wow, it sure does take a long time to clean a room.  I asked for a coffee pot and some coffee.  She said she would bring the items up to me and she did that promptly.   The room was a standard ESA room and it appeared clean and the furniture and bedding not to worn.  The TV was a newer flat screen so that was nice.  When I opened the internet their "standard" came up with only two bars.  That was a bummer so I upgraded to the faster strength.  It gave me one more bar.  I didn't appreciate the long black hairs in the towels.  I didn't realize it but I had dropped a couple of ice cubes on the kitchen floor.  When I went back to get more ice a noticed small puddles on the floor so I took a wash cloth to wipe them up.  Oh oh, the cloth was black where I used it on the floor so obviously it hadn't been mopped recently.  And when I got into the shower the next morning lots of fuzz from the carpets came off the bottom of my feet.  So obviously the carpeting hadn't been vacuumed recently either.  And it looked like a guy had missed the toilet as it was dirty at the base of the toilet.  So why does it take sooooo long to clean a room???  TMore</t>
   </si>
   <si>
+    <t>Deb E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r333529180-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -865,6 +946,9 @@
     <t>Staff were wonderful, Walmart behind hotel was convenient, booked through 3rd party so didn't realize coffee maker etc was an option, wifi was useless on phones, but the room was clean and the water was hot so would recommendMore</t>
   </si>
   <si>
+    <t>Wency777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r325603155-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -892,6 +976,9 @@
     <t>The staff has great customer service. The Manager Flora makes you feel like you're at home. Bathroom is bigger than Sheraton. The room was clean and spacious although housekeeping was only once I week, I think? Hey, you get what you paid for, this is not Four Seasons. Walmart behind the hotel makes it very convenient for you to buy quickly some basic needs. The only drawback to this hotel was it didn't have breakfast. It was a grab n' go style. For working people who like to have full breakfast, this is not a good place to stay.More</t>
   </si>
   <si>
+    <t>rajesh_the_traveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r322462501-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -913,6 +1000,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>trippingusa2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r313154190-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -940,6 +1030,9 @@
     <t>This is not the Ritz..not even close. If you're OK with no housekeeping service, and junky fare they have the nerve to call "grab 'n go" breakfast, rooms that have multiple maintenance problems they will fix within 24 hours, and you don't mind paying an on-line rate equal to what you could get for more, then this place is for you. The desk service is accommodating depending on which personality you get.The rooms are large with adequate facilities such as lighting, kitchen equipment, electric outlets and basic TV service, desks and tables, etc..More</t>
   </si>
   <si>
+    <t>Fatima H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r297063640-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -961,6 +1054,9 @@
     <t>It was a weekend and they're booked , so the bedroom is very roomy but it's two beds and even if I hate my husband sometimes I still want to sleep next to him so our dog doesn't have to choose LOL, anyway got in the room and there's like I don't know kind of smell went to the bathroom and see some brown stuff on the floor and on the corner of the sink some more brown stuff that looks like poop and I'm pretty sure it was hardened poop , can't call so went to the front desk housekeeping came in, showed him the stain and he scraped it with his nails ! I kinda yelled eww don't do that use a cloth or something he said no it's not poor and kept scraping with his nails , I said there were some on the floor too and my husband picked it up with a tissue already and flushed it then I left him finish scraping it off then he just took off without saying anything so we left and the manager is very nice and helpful on giving our refund.I give it a 3 star because even though the room is dirty , phone doesn't work , but the district manager and staff are nice and helped get us out refund from Priceline . More</t>
   </si>
   <si>
+    <t>marybelle08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r284527207-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -979,6 +1075,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Debra H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r284227977-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -991,6 +1090,9 @@
     <t>Avoid this hotel if possible unless you like hallways that smell like cheap Vegas hotels and elevators that are rattle-traps.  Twice we had to wait 5 - 10 minutes for a desk attendant to show up; we could hear the people in the next room; the refrigerator could use a good exterior cleaning; there were very limited channel selections on the TV and the picture was fuzzy.  However, for the most part, the room appeared to be clean.</t>
   </si>
   <si>
+    <t>Hazel05Torrance_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r261932132-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1018,6 +1120,9 @@
     <t>If you are staying long term this particular property has decent rates where you have a full kitchen, &amp; continental breakfast in the morning.  The only drawback is no business center; however, it really isn't an issue considering it is right next door to: Office Depot.More</t>
   </si>
   <si>
+    <t>Moises E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r258936323-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1045,6 +1150,9 @@
     <t>Yes bed bugs everywhere, not clean at all, actually they never clean your room while you stay there. Pillows are gross, the smell is terrible, I had to request a change of pillows because of the bad smell on my first night while sleeping. Breakfast coffee is terrible, really bad quality. DO NOT STAY in this hotel, there are several options that are even way cheaper and at least clean AND with fresh pillows. People at the front desk are nice but how to defend the indefensible.More</t>
   </si>
   <si>
+    <t>Jjabrahms167</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r250430188-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1069,6 +1177,9 @@
     <t>Do not stay here. It runs $130/night and the rooms look like crackheads should be living in them!!No room service. We're gone all day and come back to the room the way we left it. No beds made, no new towels. Save your money and go somewhere else. More</t>
   </si>
   <si>
+    <t>Farzin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r242639918-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1093,6 +1204,9 @@
     <t>I spent a night here while on a business trip. Room was booked on line through a major third party web site as I always do. I ended up in a smoking room which I was not happy with. I could smell weed in my room and in the hallway which other guests were using in their rooms with the door cracked open. In the morning when I asked for a receipt their rude manager refused to give me one and claimed since room was booked through a third party company she cannot give me any receipt in spite the fact they still had asked for my credit card at the time of check inn. I was stunned! She said go print your receipt out of the web site you booked your room from!! I will NOT stay at this hotel or for that matter at any Extended Stay again!More</t>
   </si>
   <si>
+    <t>krishmah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r238835622-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1117,6 +1231,9 @@
     <t>When it comes to Torrance, I always choose Extended Stay America at Harbor Gateway and every time I get a very pleasant and memorable experience. Manager and Staff members are always friendly and approachable. Rooms are spacious that comes with fully equipped kitchens.More</t>
   </si>
   <si>
+    <t>Paul J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r237104895-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1144,6 +1261,9 @@
     <t>I have been traveling on company business for 30 years and I can appreciate a  nice, quite, clean and relaxing room in a facility that really cares about the guest. I can share with you that my experience at this Torrance Harbor Gateway facility is 'Top Quality' and made special by the staff and the management. I have stayed here recently while I was relocating to LA from Chicago and when you have a consistant experience for over (2) months that speaks very well of the hotel and it's people. Highly recommended, Paul.More</t>
   </si>
   <si>
+    <t>uglyone2002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r233914209-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1171,6 +1291,9 @@
     <t>I stayed in this Hotel before. However my first stay wasnt that great but this time it was incredible nice!Got a real nice room, spacious, quiet and extremely clean. The staff is super friendly and check-in, check-out couldnt get any better or efficient. Hotel is nicely loacated, free parking and free Internet is available.The manager, Mrs Flora, is the heart and soul of this property and always find the time for a short conversation.I will definetly stay here again when in come back to Torrance.More</t>
   </si>
   <si>
+    <t>christine J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r230369878-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1198,6 +1321,9 @@
     <t>Stayed for only 2 nights.  My biggest complaint was the cleanliness or lack there of.  Curtain, carpet and counters were stained.  We had to clean grime and dirt off the fridge, counters, curtains etc. Even the chair ( I am going to assume it was tomato juice and seeds) we had to clean.  My socks turned black from the filthy floors.  I wiped the floor to clean up water from a shower and the towel was black!  I didn't even touch on all the dust!! OR, that I had been bitten up by bugs BOTH nights when I woke in the morning.  OR, that it smelled old and like smoke when we walked in.  Then there's the noise.  I could hear the people above WALKING .. Now they may be heavy walkers but I could also hear every person in the hall .. Walls are paper thin.  So thin in fact I was privy to a private and intense make out session in the next room.  One morning we awoke to the loud banging and moaning of said party.  Awkward!!! ( now you know I had to stand in the hallway to see who had been putting in all that work - don't judge .. You know you would too!  ;)More</t>
   </si>
   <si>
+    <t>GERALD W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r223924431-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1222,6 +1348,9 @@
     <t>Its always a pleasure to return to what I like to call home...everything is always so very enjoyable...the surrounding areas of the hotel provides an excellent array of restaurants and shopping.There's also easy access to major freeways and highways. Several malls are only15 minutes away.l always recommend this hotel to friends,family and acquaintances.Personally,I've been a customer of Extended Stay America for nearly 12 years now and I can honestly say that I have never been disappointed with anything. More</t>
   </si>
   <si>
+    <t>Leland D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r214915881-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1246,6 +1375,9 @@
     <t>THG is a great place to stay on business.  The weather is nice, and restaurants and shops are close by so that makes for a nice walk.  The staff is very friendly and accommodating and the rooms are clean.  So far Uber to the airport has not cost me more than $20 and they always come within about 10 minutes.  This is my place of choice to stay when in Torrance.More</t>
   </si>
   <si>
+    <t>cathy s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r211893973-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1271,6 +1403,9 @@
   </si>
   <si>
     <t>I stayed at Extended Stay-Harbor Gateway in Torrance, CA. The rooms are stylish and clean, the beds are so comfortable.The staff, namely Flora (Manager), Cynthia and Anthony; Front desk are very professional and thorough. When I stay away from home I like to be treated like an important guest and that's how I was treated. If your ever in town and need a nice hotel with caring staff and excellent customer service, I advise you to stay at this hotel. Close by everything; food, shopping, entertainment and freeways for easy access to your next destination.More</t>
+  </si>
+  <si>
+    <t>TCBandersnatch</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r210345413-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
@@ -1297,6 +1432,9 @@
 Perhaps I've been spoiled by my experiences at...I'm a frequent traveler and my three nights at the Extended Stay American was one of my more disappointing experiences in some time. It would appear that the management is optimizing around three objectives; keep it simple, keep it clean, and cut every cent possible. It's the last that, in the aggregate, made for a rather icky experience. Let's start with the bathroom; if you decide to stay here plan on bringing your own shampoo, conditioner, lotion, and soap. Other than two silver dollar sized slivers of soap you'll get none of these. If you're used to towels that actually dry you off bring your own because the two provided were so thin I needed both after my shower. Oh.. and whatever you do, be sure to hang them up to dry when you're done because house cleaning never visited my room once in 3 days.  If you're planning on preparing a meal in what appears to be a small kitchen in the stock photos be sure to bring your own utensils, something to cook on, plates to eat on, and glasses to drink from because you'll find none of that in your room.  Whatever you do, get a room on the third floor. I felt bad for the folks on the floor beneath me because unless I practically tip toed, every step caused the entire floor and the walls to vibrate.  Perhaps I've been spoiled by my experiences at the Staybridge down the street (another property that caters to extended stays) but this place made a motel 6 feel luxurious.  I suppose that if I were to inquire at the desk I could probably get some of what was missing from the room but I didn't check. NOTE: The property seems to cater to line workers from nearby industrial businesses. I didn't meet anyone rowdy or unpleasant but you definitely get the sense that you're highly unlikely to bump into families on vacation or white collar business travelers. On the positive side; my room was clean, spacious, and well maintained. The flat panel TV was large and modern.  The A/C was quiet and kept the room cool. The staff was friendly.  The location quiet and convenient to the 405.   In short, there was nothing 'bad' about the property - there just wasn't a lot to recommend it.More</t>
   </si>
   <si>
+    <t>visualinspection</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r208759364-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1321,6 +1459,9 @@
     <t>Convenient location. ...Clean rooms.... friendly and helpful staff.... Starbucks is a 2 minute walk with other good small eateries nearby. 5 stars! !! For a late night snack I used to be able to get a coke or a sprite!  But they recently switched to Pepsi. ... not a reason to not stay here but please bring back the coca cola vendor as soon as possible! More</t>
   </si>
   <si>
+    <t>RGranadosCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r206041786-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1348,6 +1489,9 @@
     <t>If you are looking for a place to stay, "home away from home", this is the place to stay!Excellent customer service, friendly staff, and very clean!  Comfortable accommodations, clean laundry room and nice selection of complimentary breakfast options.More</t>
   </si>
   <si>
+    <t>SharmanD327</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r205139906-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1375,6 +1519,9 @@
     <t>Quite and nice place to stay closer to LAX and my work place. Staff are friendly and nice. Manager  is very helpful and very responsive.  I stayed there more than eight time in the last one year and often more than 20 days each time. Very close to my work place and nice resturants and high ways (405 and 105).  Very comfortable rooms with full kitchen. Close to wallmart and other grocery stores. Closer to most of the beaches and safe place to stay. Nice family and friendly environment.I highly recommend to friends and my family visiting LAX.More</t>
   </si>
   <si>
+    <t>pammerpower</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r199067675-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1399,6 +1546,9 @@
     <t>It is close to where I work on a project and for the price a great value. No frills here but clean and quiet. Good grab and go breakfast. The staff remembers you and are super friendly. Rooms are basic but has a full kitchen. Only drawback is a really hard and uncomfortable bed for more than one night. More</t>
   </si>
   <si>
+    <t>Bryan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r194405620-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1426,6 +1576,9 @@
     <t>I have stayed in a few different ESA hotels in the area and this one is by far the best.  I have been staying here on business the past three weeks, and have no problems.  I work nights and sleep during the day, and I have enjoyed the quiet.  Located in an industrial area so traffic noise is not a problem like other locations.  Flora the manager is great and treats everyone like family.  I will be staying here again when I'm in the area on business.More</t>
   </si>
   <si>
+    <t>Beartracks74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r193592277-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1447,6 +1600,9 @@
     <t>I've stayed at two of these hotels over the past few years in different parts of the country.  I had the same type of experience with both.  The Extended Stays are like homeless shelters.  Literally, people who don't have a home, but some type of income "live here".  One guy even has a car under a car cover.  Yeah,......he's not in for vacation or business.  Couldn't sleep with the dogs barking and kids crying and yelling. Someone running up and down the halls at 4:00am. Someone stood outside my room in the hallway on the phone for 40 minutes at 10:30pm.  I'm on eastern time, so it felt like 1:30am to me.  Also,......it in a Walmart parking lot.  Lots of lights coming through every crack in the curtains. I went down to the lobby and told them to get me a different room in a different part of the hotel.  Here's the only positive part.  The person working the night shift actually accommodated me.  She gave me another room and was very apologetic, but was not surprised. She new exactly who the person on the phone was, but apparently nothing she can do.  Unfortunately the replacement room was a smoking room (all they had left), but it didn't smell that bad. Breakfast in the lobby is scarce to say the least.  Go to Walmart the night before or go hungry.  I had to go on business and the company I...I've stayed at two of these hotels over the past few years in different parts of the country.  I had the same type of experience with both.  The Extended Stays are like homeless shelters.  Literally, people who don't have a home, but some type of income "live here".  One guy even has a car under a car cover.  Yeah,......he's not in for vacation or business.  Couldn't sleep with the dogs barking and kids crying and yelling. Someone running up and down the halls at 4:00am. Someone stood outside my room in the hallway on the phone for 40 minutes at 10:30pm.  I'm on eastern time, so it felt like 1:30am to me.  Also,......it in a Walmart parking lot.  Lots of lights coming through every crack in the curtains. I went down to the lobby and told them to get me a different room in a different part of the hotel.  Here's the only positive part.  The person working the night shift actually accommodated me.  She gave me another room and was very apologetic, but was not surprised. She new exactly who the person on the phone was, but apparently nothing she can do.  Unfortunately the replacement room was a smoking room (all they had left), but it didn't smell that bad. Breakfast in the lobby is scarce to say the least.  Go to Walmart the night before or go hungry.  I had to go on business and the company I was working for set me up there.  Won't go again unless they book the Holiday Inn only a mile away.  The rooms, however, seem very clean.More</t>
   </si>
   <si>
+    <t>Ben R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r188633084-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1462,6 +1618,9 @@
     <t>I booked the room through hotwire and i clarified 2 adults.  When i arrived they told me i would have to pay an extra 20 dollars for two beds.  I have never had that happen to me.  Nobody informed me prior to purchasing the room that two beds was extra.  the twenty bucks doesnt mean that much to me.  Its the principal</t>
   </si>
   <si>
+    <t>Alee550</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r186849936-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1486,6 +1645,9 @@
     <t>My wife and 2 kids stayed here for the weekend and I was pleasantly surprised how nice and clean this hotel was kept. When we came in we were greeted kindly by the receptionist and check in was rather quick. For the price, if you are looking for affordable nice clean and hotel to stay this is the best place to go. More</t>
   </si>
   <si>
+    <t>DJL2727</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r186748436-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1507,6 +1669,9 @@
     <t>I travel extensively for both business and pleasure.  I booked this location because it was in walking distance with 3 days of meetings at Wal-mart.  I would stay there again because of the property and most of all because of the staff.  They genuinely care and take pride in their jobs. (Take a look at the responses to comments below)  The rooms were clean and quiet.  The desk was large with a comfortable chair to work with. The bed and bath were very good.  I did not encounter any challenges while I was there but feel confident if something should have come up it would have been taken care of in a proper manner.  The lobby, hall ways and overall property was kept very clean.  Thank you to all.  DaleMore</t>
   </si>
   <si>
+    <t>Patricia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r183396348-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1532,6 +1697,9 @@
   </si>
   <si>
     <t>I have stayed in this hotel before, but on this trip stay experienced for the first time roaches in the bathroom. I think the hotel needs to be away of this since they are a hotel that allows food and cooking and that experience alone made this stay uncomfortable.More</t>
+  </si>
+  <si>
+    <t>TorranceRyan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r180754393-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
@@ -1556,6 +1724,9 @@
 The staff was great at times and horrible at times.  The shower head in one room was really noisy and the drain was really slow the first night we stayed there.  We called the front desk and an employee came to check it out within 2 minutes and repairs were made the next morning - very impressive.  On the flip side, my wife went to ask for more bowls since there's only 1 per room and we needed a total of 6.  The employee initially would only give us 2 more even though we had 2 rooms and 6 people. It's not like we had 6 people into 1 room.  What's the point of staying in a place with a kitchen if they won't provide enough bowls...I stayed here with my wife and 4 kids and it was disappointing and depressing.  We stayed in 2 rooms; 3 per room.  I've stayed at at least 2 other Extended Stay America locations and this one was inferior.  I would not stay here again or recommend this location.  We ended up checking out and staying somewhere else.The rooms were depressing and dark.  The walls are plain with no artwork or decoration.  The blinds and bed covers were a dark brown - a color that might be good for handling a lot of wear and tear, but not cheerful colors.  The rooms also smaller than the other ESA locations we've stayed at.The staff was great at times and horrible at times.  The shower head in one room was really noisy and the drain was really slow the first night we stayed there.  We called the front desk and an employee came to check it out within 2 minutes and repairs were made the next morning - very impressive.  On the flip side, my wife went to ask for more bowls since there's only 1 per room and we needed a total of 6.  The employee initially would only give us 2 more even though we had 2 rooms and 6 people. It's not like we had 6 people into 1 room.  What's the point of staying in a place with a kitchen if they won't provide enough bowls to eat with?  After some "discussion," another employee stepped in and gave my wife the 4 bowl she asked for.Breakfast is provided, but simple and limited.  Coffee, instant oatmeal, packaged (not fresh) muffins and fruit - just like the picture on the ESA website.  At least the picture is accurate.There is NO pool at this location. One positive is that this location is very close to several food options - Starbucks, Chinese food, Japanese food, a sandwich place, Carl's Jr and Walmart is about 1 block away.More</t>
   </si>
   <si>
+    <t>feona622</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r175596502-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1583,6 +1754,9 @@
     <t>We get there almost by 11 pm during delay of flight, go check in only take 2 minutes?? As told they don't have room available for 2 queens bed, but the will upgrade us to be a  suite (Kind bed with a sofa bed) of course I do not have choice. The room was clean and big, but the sofa bed was horrible, I need to take the mattress out and sleep on the floor. Next day went to front desk and ask for changing room. Unfortunately, they don't have any available. They put a panel under the sofa bed and make it harder with 2 extra mattress topper on the sofa bed mattress for us. Its better than sleep on the floor. They was very helpful and I believe they try the best as they could. Grab and go breakfast is OK, coffee, tea, muffin, energy bar and fruit. The staff was very polite and courteous, over all satisfied, I would definitely stay there again.More</t>
   </si>
   <si>
+    <t>all-inclusive4me08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r165213016-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1601,6 +1775,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Julie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r164948511-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1619,6 +1796,9 @@
     <t>These rooms with full kitchens are as up-scale as the big names but at a FAR more reasonable price. We are always on a budget, as my husband travels for work months at a time, and having a full kitchen MORE than pays for itself. The staff here is top notch, and the manager, Flora, makes everyone feel like part of the family. I'm amazed to hear her chatting with each guest as they pass, knowing their work schedules, company and even what type of work they do! It's nice to feel like someone recognizes your hard work, even away from home. Flora and her staff deserve a big "thank you" and I hope corporate reads this.More</t>
   </si>
   <si>
+    <t>snookytj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r164660596-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1634,6 +1814,9 @@
     <t>Evrytime we go out of town and evrytime we have friends and relatives that comes and visit. we always stay and check in at Extended stay America..although most of the staff are nice ..this one..in Torrance  Harbor Gateway..stands out the most...in customer service..the manager Flora and front desk staff.(Mario)  are very accomodating and .nice...this is the place where the staff will really make you feel at home...the rooms were clean and so with the kitchen.although this a a late review...(check in June 5)I want to thank the manager and staff ...for making us and our guest happy. comfortable and .satisfied evrytime they come and visit...THANKS !</t>
   </si>
   <si>
+    <t>Alida S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r156319635-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1661,6 +1844,9 @@
     <t>We needed two rooms for a quick sleep between traveling from No Cal to the LA area for an event. This location was perfect for easy access to a wide variety of restaurants and a Walmart for an emergency purchase.Rooms were clean and spacious with nice kitchen amenities.. Staff was helpful notifying us of a Sat delivery even though we had checked out.More</t>
   </si>
   <si>
+    <t>STACEY M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r152648381-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1688,6 +1874,9 @@
     <t>In 16 years of traveling for business this is the best hotel stay ever !!!! The manager Ms. Flora knows all her guest and treats them like family. The staff is very knowledgeable,friendly and follows their Manager by example. The property is maintained well and very safe!!!! I was a guest there for 3 months and enjoyed every day. I had 12 co workers staying there too and they all had wonderful compliments as well. I wish all the Hotels were as GREAT as this one ! Thanks again Ms.Flora and I will be staying there again.More</t>
   </si>
   <si>
+    <t>Andy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r151781639-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1715,6 +1904,9 @@
     <t>I just like to saythank you to Flora and the staff for always making me feel welcome, I feel very relaxed when I stay at this extended stay, I never worry about my truck and my gear in it. I always get the rest I need, check in are painless as well as check outs and since I leave early in the mornings many of the times I know mey reciept will be in my e-mail that day. I have personally witnessed the staff go out of thier way for all guest they deal with. There is also so many chioces of palces to eat if you dont want to cok in your own room.  Thank you Miss Flora and the rest of you staff for making me always feel at home.More</t>
   </si>
   <si>
+    <t>Luis_Cantor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r145596922-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1739,6 +1931,9 @@
     <t>Everything was neat and clean, stores accessible to you left and right, staff was very kind and friendly. They made me feel very welcome and wanted an worked with what I had to make things work out well. I wouldn't mind stopping to say hello to them! If you're looking for a great hotel make sure you check this one out! More</t>
   </si>
   <si>
+    <t>Linda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r145426621-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1766,6 +1961,9 @@
     <t>I was a little worried about finding a location where I felt safe since I didn't know the area all that well and I was pleasantly surprised at the hotel and the surrounding area. I felt very safe and the room and the hotel itself was very relaxing. Everything was so clean and fresh. The little kitchen was a plus and would be a great deal with an extended stay. I will be booking at this hotel again, for sure.More</t>
   </si>
   <si>
+    <t>NYtraveller001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r144648393-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1790,6 +1988,9 @@
     <t>I stayed here twice already both times for 5 business days Monday thru Friday. The staff is very helpful and the location is close to my customer place. Rooms are OK not so great but comfortable for short business trips. very close to restaurants like taco bell &amp; subway. Right behind the property there is a walmart for any basic needs.More</t>
   </si>
   <si>
+    <t>AliceW791</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r134956821-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1817,6 +2018,9 @@
     <t>I've stayed here plenty times before and never thought to write a review on TripAdvisor until my last stay at this ESA. I've always had great experiences here and very rarely, some mediocre ones but usually not due to staff...but even so, we are all human beings and mistakes happen. However you can always tell that they go out of their way to make sure you are comfortable...Flora and Mario are amazing and so are Angel and Amy (I think that's her name...so sorry if I got it wrong!). The rooms are clean, the bed/bedding is average but much improved since the renovation, the internet works just fine for free, the TV has all my favorite channels, the water is hot, and the water pressure is good. Stores and food within walking distance (less than 3 minutes walk!), how much more convenient can it get? Close to THREE freeways: 405, 91, and 110. The area is safe and I've never had any problems, but of course, always practice smart and safe traveling.Look forward to staying here again.More</t>
   </si>
   <si>
+    <t>patty49er</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r134874333-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1835,6 +2039,9 @@
     <t>We live in Southern California and would normally not be staying in a hotel in the area, but since we were having our floors redone, we had to be out of the house for several days. We looked for a pet-friendly hotel, but our first choice was booked and they directed us to this hotel. My husband made the reservation without being told that pets are $25 per night per pet (we have three cats under 10 pounds each). I guess he assumed the cost was the same as the previous hotel ($25 per night, period). We were informed when we checked in; we were unhappy about this, but felt we didn't have a choice, not with three cats. We were put on the third floor; the hallways stank of...I'm not sure what. Possibly old Chinese food. We were in a non-smoking room, but I saw at least one cigarette burn on a counter. The room was okay; nothing horrible and nothing special. I didn't think the room was that great of value, especially since there was no maid service and the extra fees we paid for our cats who did no damage and always used the litter box we brought. Can you tell I'm still burned about that? When they say there are toiletries, they mean one little bar of soap for the shower and one for washing hands. That's it for toiletries--no lotion, no shampoo, no conditioner. There's...We live in Southern California and would normally not be staying in a hotel in the area, but since we were having our floors redone, we had to be out of the house for several days. We looked for a pet-friendly hotel, but our first choice was booked and they directed us to this hotel. My husband made the reservation without being told that pets are $25 per night per pet (we have three cats under 10 pounds each). I guess he assumed the cost was the same as the previous hotel ($25 per night, period). We were informed when we checked in; we were unhappy about this, but felt we didn't have a choice, not with three cats. We were put on the third floor; the hallways stank of...I'm not sure what. Possibly old Chinese food. We were in a non-smoking room, but I saw at least one cigarette burn on a counter. The room was okay; nothing horrible and nothing special. I didn't think the room was that great of value, especially since there was no maid service and the extra fees we paid for our cats who did no damage and always used the litter box we brought. Can you tell I'm still burned about that? When they say there are toiletries, they mean one little bar of soap for the shower and one for washing hands. That's it for toiletries--no lotion, no shampoo, no conditioner. There's also no hair dryer, although there was an iron and ironing board. Luckily I read people's reviews here or I would have taken for granted that those things were there. The Grab &amp; Go Breakfast was okay--coffee, packaged pastry (like a muffin), oatmeal, and a piece of fruit. I didn't bother after the first day.The smell of Hawaiian bread was wonderful (the hotel is across the street from the factory that makes it), there are a few fast food places within walking distance, plus the hotel is very close to the 405 Freeway, which is convenient. All in all, it was okay. I never met Flora or Mario, so I can't comment on how great they are.More</t>
   </si>
   <si>
+    <t>Blondefun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r134743892-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1880,6 +2087,9 @@
     <t>I have stayed at the other extended stay America's by company error, I request this one due to the Manager (Flora) and her willingness to show you the rooms available.  From day one herself and the staff are always pleasant and go out of there way to accomadate you.  Not to mention juggling dates of arrival and departure to meet your needs Awesome Staff and Manager. Lot of places to eat within walking distance including everyones favorite store Wally World.Thank you for everything AndyMore</t>
   </si>
   <si>
+    <t>wtfresca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r132449207-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1898,6 +2108,9 @@
     <t>Convenient location, rooms are maintained but showing a little wear. No shampoo is a downer. Coffee and a grab-and-go breakfast bar in the morning is nice. It is an extended stay hotel and amenities aren't meant to dazzle. It is what it is.More</t>
   </si>
   <si>
+    <t>Maria R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r131241607-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1919,6 +2132,9 @@
     <t>After much research I decided to stayed at ESA Harbor Gateway with my pet for 10 days.  The reservation was flawless. Flora, the Manager was welcoming before and during my entire stay; she was an absolute delight to be around.  She was kind and professional always inquiring if everything was okay for me.  In fact, the entire staff including Mario and Angel were so courteous and polite and I was always greeted by a smile. The hotel's grounds were nicely manicured and clean; my room was spotless, clean and the kitchen with a full size fridge came in handy. The location was perfect; there was a Walmart directly in the back of the hotel.  There were many fast food establishments around the corner and a short distance away were the many malls including Del Amo and the South Bay Galleria.  This ESA location was better than the others listed around the area as far as the amenities available.  The parking lot was well lit; the key entry system was securing and I felt safe the entire time.  King's Hawaiian Bakery Headquarters was directly opposite the hotel so you could smell the baked goods 24/7.  Too bad you couldn't walk across and buy from them, but their "Local Place Restaurant" is less than a mile away off Western Ave and a great food find!  Freeway access to the 405 and 110 was easy and just a 5-6 mile drive down 190th...After much research I decided to stayed at ESA Harbor Gateway with my pet for 10 days.  The reservation was flawless. Flora, the Manager was welcoming before and during my entire stay; she was an absolute delight to be around.  She was kind and professional always inquiring if everything was okay for me.  In fact, the entire staff including Mario and Angel were so courteous and polite and I was always greeted by a smile. The hotel's grounds were nicely manicured and clean; my room was spotless, clean and the kitchen with a full size fridge came in handy. The location was perfect; there was a Walmart directly in the back of the hotel.  There were many fast food establishments around the corner and a short distance away were the many malls including Del Amo and the South Bay Galleria.  This ESA location was better than the others listed around the area as far as the amenities available.  The parking lot was well lit; the key entry system was securing and I felt safe the entire time.  King's Hawaiian Bakery Headquarters was directly opposite the hotel so you could smell the baked goods 24/7.  Too bad you couldn't walk across and buy from them, but their "Local Place Restaurant" is less than a mile away off Western Ave and a great food find!  Freeway access to the 405 and 110 was easy and just a 5-6 mile drive down 190th would take you right down to the Redondo Beach Pier. All in all, ESA Harbor Gateway was a great place to stay and wouldn't hesitate to stay there again.More</t>
   </si>
   <si>
+    <t>winspenelli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r126276104-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1952,6 +2168,9 @@
     <t>Every time I'm in So Ca I stay here at ESA Harbor Gateway. Great location for me, only 11 min. from LAX, and only a few blocks connecting with 3 major freeways.Manager Flora, and her staff always very pleasant and extra helpful. The rooms have just been totally renovated, now with large flat screen TV's, and free high-speed internet.My home away from home.</t>
   </si>
   <si>
+    <t>Najam_Hassan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r124690533-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1973,6 +2192,9 @@
     <t>Me and my team have been staying at this ESA for two years in a row and i can tell you that we have been really taken good care by Flora (Manager) and her Staff. These guys do an excellent job of making sure that our stay is comfortable. First time i came here with my wife and son (3 years old) and stayed here for a month. It is a very safe &amp; secure place.The best part is that it is just 2 minutes walk to Wal Mart. Their facility (rooms, washrooms etc) are very clean and the recent upgrade to the place has done wonders to it. Just 10 minutes drive to Hawthorne Blvd and all the malls (Del Amo, Macy's, JC Penny, Target, Ross etc). Just 2 minutes drive from 405 N &amp; S if you want to go to downtown LA or otherwise.For me it was very convenient as well, since i was on a business trip, that my office facility is just 5 minutes drive from ESA.All in all this is highly recommended place to stay.More</t>
   </si>
   <si>
+    <t>nbalsari</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r123684918-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -1991,6 +2213,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Frequentravel-her</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r119517829-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -2006,6 +2231,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Lzsuzsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r119343990-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -2024,6 +2252,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Neeru11_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r115469506-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -2042,6 +2273,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>divyadon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r90691231-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -2063,6 +2297,9 @@
     <t>I traveled to LA from AZ and booked this hotel. I stayed in Extended stay Anaheim for first 2 days and came here for last 2 days. I booked signature style room (paid extra $10/day) . So reached hotel at 9:00 in the night after full day at Universal Studio. Check-in was smooth, went in and found no hangers and no knife (this is kitchen included room). Came back to reception and she said she will ask it tomorrow???? So self catering kitchen and no knife and i had to wait over night, i found that weird. Anyway signature style did not impress me much as i did not find anything special. Next day, my son found an empty Macdonald drink plastic glass means the house was not cleaned at all. Kitchen has only 2 spoon and 2 fork and restroom opening is just in front of kitchen which i found very awakword. I paid $192 for 2 nights and no breakfast included and internet was extra $5 and quality was pretty bad. I would not say that do not stay in the hotel but I would prefer Marriott kitchen included rooms as the quality is awasome and breakfast is included and the internet is free too and that too for $89 +tax which is almost saem quality. Personally, we were not happy with the hotel and will not stay in this again/RgdsDMore</t>
   </si>
   <si>
+    <t>Tony J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r87229068-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -2081,6 +2318,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>kristen2470</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r66785622-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -2099,6 +2339,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>GuyinPalmSprings</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r46108008-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
   </si>
   <si>
@@ -2118,6 +2361,9 @@
   </si>
   <si>
     <t>I spent a couple nights when I had some business to conduct.  No complaints but it is basic, nothing more.  I'd describe the Extended Stay chain as akin to Motel 6, except Extended Stay has a little kitchenette in each room (without oven - only a microwave, refrig, and stove).  For this location, the room was clean and reasonably quiet.  The area surrounding the hotel is safe (if not exciting).  There are restaurants nearby.  It was inexpensive compared to the alternatives.  If you're just looking for an acceptable place to sleep in a safe neighborhood, this place will work for you.  But, if you're looking for any frills you should go elsewhere.More</t>
+  </si>
+  <si>
+    <t>CarsonTraveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225559-r27326049-Extended_Stay_America_Los_Angeles_Torrance_Harbor_Gateway-Torrance_California.html</t>
@@ -2640,43 +2886,47 @@
       <c r="A2" t="n">
         <v>38823</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146503</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2688,56 +2938,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38823</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146504</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2749,56 +3003,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38823</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146505</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2816,56 +3074,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38823</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146506</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2887,56 +3149,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38823</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146507</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2948,56 +3214,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38823</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146508</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3009,47 +3279,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38823</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -3066,56 +3340,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38823</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146509</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3133,56 +3411,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38823</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146510</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3194,56 +3476,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38823</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146511</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3265,56 +3551,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38823</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>3767</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3326,56 +3616,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38823</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146512</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -3397,56 +3691,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38823</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146513</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3468,56 +3766,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38823</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146514</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3539,56 +3841,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38823</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146515</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3610,56 +3916,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38823</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146516</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3681,56 +3991,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38823</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146517</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3752,56 +4066,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38823</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146518</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3823,56 +4141,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38823</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146519</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3892,50 +4214,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38823</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146520</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3953,56 +4279,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38823</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146521</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4018,47 +4348,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38823</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>50075</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -4077,50 +4411,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38823</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4138,56 +4476,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38823</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>5674</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4207,50 +4549,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38823</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146522</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4266,56 +4612,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38823</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>100725</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -4333,56 +4683,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38823</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>103480</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4398,56 +4752,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="X28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="Y28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38823</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146523</v>
+      </c>
+      <c r="C29" t="s">
+        <v>302</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="J29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="K29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4465,56 +4823,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="X29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="Y29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38823</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146524</v>
+      </c>
+      <c r="C30" t="s">
+        <v>312</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="J30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="K30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="O30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4528,50 +4890,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38823</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146448</v>
+      </c>
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4587,56 +4953,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="X31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="Y31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38823</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146525</v>
+      </c>
+      <c r="C32" t="s">
+        <v>330</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="K32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="O32" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4650,50 +5020,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38823</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146526</v>
+      </c>
+      <c r="C33" t="s">
+        <v>338</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O33" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4707,50 +5081,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38823</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>28097</v>
+      </c>
+      <c r="C34" t="s">
+        <v>345</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4770,50 +5148,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38823</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146527</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4831,56 +5213,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="X35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="Y35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38823</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146528</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4898,47 +5284,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38823</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146529</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -4965,47 +5355,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="X37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="Y37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38823</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146530</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
@@ -5032,47 +5426,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="X38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38823</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146531</v>
+      </c>
+      <c r="C39" t="s">
+        <v>388</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -5099,56 +5497,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="X39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38823</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>40235</v>
+      </c>
+      <c r="C40" t="s">
+        <v>397</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="J40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5166,56 +5568,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="X40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="Y40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38823</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146532</v>
+      </c>
+      <c r="C41" t="s">
+        <v>407</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5233,56 +5639,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38823</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146533</v>
+      </c>
+      <c r="C42" t="s">
+        <v>417</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -5300,47 +5710,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="X42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="Y42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38823</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146534</v>
+      </c>
+      <c r="C43" t="s">
+        <v>427</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="J43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="K43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="L43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -5367,56 +5781,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="X43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="Y43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38823</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146535</v>
+      </c>
+      <c r="C44" t="s">
+        <v>436</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="K44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5434,56 +5852,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="X44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="Y44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38823</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>18806</v>
+      </c>
+      <c r="C45" t="s">
+        <v>445</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="J45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5505,56 +5927,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="X45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38823</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146536</v>
+      </c>
+      <c r="C46" t="s">
+        <v>455</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5578,41 +6004,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38823</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146537</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -5639,56 +6069,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="X47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="Y47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38823</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146538</v>
+      </c>
+      <c r="C48" t="s">
+        <v>471</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="J48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="K48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="L48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5710,56 +6144,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="X48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="Y48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38823</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146539</v>
+      </c>
+      <c r="C49" t="s">
+        <v>481</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="J49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="K49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="L49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5781,47 +6219,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="X49" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="Y49" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38823</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146540</v>
+      </c>
+      <c r="C50" t="s">
+        <v>491</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="J50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="K50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="L50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5848,56 +6290,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="X50" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="Y50" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38823</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>102904</v>
+      </c>
+      <c r="C51" t="s">
+        <v>500</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="J51" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="L51" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5909,56 +6355,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="X51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="Y51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38823</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146541</v>
+      </c>
+      <c r="C52" t="s">
+        <v>510</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="J52" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="K52" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="L52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5982,41 +6432,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38823</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>13144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>518</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="J53" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="K53" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="L53" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -6045,41 +6499,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38823</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146542</v>
+      </c>
+      <c r="C54" t="s">
+        <v>524</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="J54" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="K54" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="L54" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -6106,56 +6564,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="X54" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="Y54" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38823</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146543</v>
+      </c>
+      <c r="C55" t="s">
+        <v>533</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="J55" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="K55" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="L55" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6179,50 +6641,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38823</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>3015</v>
+      </c>
+      <c r="C56" t="s">
+        <v>541</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="J56" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="L56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="O56" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6244,56 +6710,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="X56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="Y56" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38823</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146544</v>
+      </c>
+      <c r="C57" t="s">
+        <v>551</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="J57" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="K57" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="L57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6317,50 +6787,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38823</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146545</v>
+      </c>
+      <c r="C58" t="s">
+        <v>558</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="J58" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="K58" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="L58" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6382,56 +6856,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="X58" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="Y58" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>38823</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146546</v>
+      </c>
+      <c r="C59" t="s">
+        <v>568</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="J59" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="K59" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="L59" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6455,50 +6933,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>38823</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>5790</v>
+      </c>
+      <c r="C60" t="s">
+        <v>575</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="J60" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="K60" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="L60" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6522,50 +7004,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>38823</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146547</v>
+      </c>
+      <c r="C61" t="s">
+        <v>582</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="J61" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="K61" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="L61" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="O61" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6589,50 +7075,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>38823</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146548</v>
+      </c>
+      <c r="C62" t="s">
+        <v>588</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="J62" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="K62" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="L62" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6654,56 +7144,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="X62" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="Y62" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>38823</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>102157</v>
+      </c>
+      <c r="C63" t="s">
+        <v>598</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="J63" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="K63" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="L63" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6725,56 +7219,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="X63" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="Y63" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>38823</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>46761</v>
+      </c>
+      <c r="C64" t="s">
+        <v>608</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="J64" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="K64" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="L64" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="O64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6796,47 +7294,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="X64" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="Y64" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>38823</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146549</v>
+      </c>
+      <c r="C65" t="s">
+        <v>618</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="J65" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="K65" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="L65" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6863,56 +7365,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="X65" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="Y65" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>38823</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>6449</v>
+      </c>
+      <c r="C66" t="s">
+        <v>627</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="J66" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="K66" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="L66" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6934,56 +7440,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="X66" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="Y66" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>38823</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146550</v>
+      </c>
+      <c r="C67" t="s">
+        <v>637</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="J67" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="K67" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="L67" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="O67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7005,56 +7515,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="X67" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="Y67" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>38823</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146551</v>
+      </c>
+      <c r="C68" t="s">
+        <v>646</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="J68" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="K68" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="L68" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7076,56 +7590,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="X68" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="Y68" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>38823</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146552</v>
+      </c>
+      <c r="C69" t="s">
+        <v>656</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="J69" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="K69" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="L69" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="O69" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7145,47 +7663,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="X69" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="Y69" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>38823</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146553</v>
+      </c>
+      <c r="C70" t="s">
+        <v>663</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="J70" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="K70" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="L70" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7212,56 +7734,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="X70" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="Y70" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>38823</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>46761</v>
+      </c>
+      <c r="C71" t="s">
+        <v>608</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="J71" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="K71" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="L71" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7283,56 +7809,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="X71" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="Y71" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>38823</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146554</v>
+      </c>
+      <c r="C72" t="s">
+        <v>679</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="J72" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="K72" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="L72" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7354,56 +7884,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="X72" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="Y72" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>38823</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>72188</v>
+      </c>
+      <c r="C73" t="s">
+        <v>686</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="J73" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="K73" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="L73" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7425,56 +7959,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="X73" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="Y73" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>38823</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146555</v>
+      </c>
+      <c r="C74" t="s">
+        <v>694</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="J74" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="K74" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="L74" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7498,50 +8036,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>38823</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="J75" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="K75" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="L75" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7565,50 +8107,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>38823</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146556</v>
+      </c>
+      <c r="C76" t="s">
+        <v>706</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="J76" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="K76" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="L76" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="O76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7632,50 +8178,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>38823</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>32829</v>
+      </c>
+      <c r="C77" t="s">
+        <v>714</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="J77" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="K77" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="L77" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="O77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7699,50 +8249,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>38823</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146557</v>
+      </c>
+      <c r="C78" t="s">
+        <v>721</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="J78" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="K78" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L78" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="O78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7766,50 +8320,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>38823</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146558</v>
+      </c>
+      <c r="C79" t="s">
+        <v>727</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="J79" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="K79" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="L79" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="O79" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7833,50 +8391,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>38823</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146559</v>
+      </c>
+      <c r="C80" t="s">
+        <v>734</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="J80" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="K80" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="L80" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7896,50 +8458,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>38823</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146560</v>
+      </c>
+      <c r="C81" t="s">
+        <v>741</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
       <c r="J81" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="K81" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="L81" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7963,50 +8529,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>38823</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>38567</v>
+      </c>
+      <c r="C82" t="s">
+        <v>749</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="J82" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="K82" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="L82" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8030,50 +8600,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>38823</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146561</v>
+      </c>
+      <c r="C83" t="s">
+        <v>756</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="J83" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="K83" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="L83" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="O83" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8097,50 +8671,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>38823</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146562</v>
+      </c>
+      <c r="C84" t="s">
+        <v>763</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="J84" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="K84" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="L84" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8164,50 +8742,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>38823</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146563</v>
+      </c>
+      <c r="C85" t="s">
+        <v>771</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="J85" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="K85" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="L85" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="O85" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8231,7 +8813,7 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_267.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_267.xlsx
@@ -2887,7 +2887,7 @@
         <v>38823</v>
       </c>
       <c r="B2" t="n">
-        <v>146503</v>
+        <v>177847</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2952,7 +2952,7 @@
         <v>38823</v>
       </c>
       <c r="B3" t="n">
-        <v>146504</v>
+        <v>177848</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3017,7 +3017,7 @@
         <v>38823</v>
       </c>
       <c r="B4" t="n">
-        <v>146505</v>
+        <v>177849</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -3088,7 +3088,7 @@
         <v>38823</v>
       </c>
       <c r="B5" t="n">
-        <v>146506</v>
+        <v>177850</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3163,7 +3163,7 @@
         <v>38823</v>
       </c>
       <c r="B6" t="n">
-        <v>146507</v>
+        <v>177851</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -3228,7 +3228,7 @@
         <v>38823</v>
       </c>
       <c r="B7" t="n">
-        <v>146508</v>
+        <v>177852</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -3354,7 +3354,7 @@
         <v>38823</v>
       </c>
       <c r="B9" t="n">
-        <v>146509</v>
+        <v>177853</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -3425,7 +3425,7 @@
         <v>38823</v>
       </c>
       <c r="B10" t="n">
-        <v>146510</v>
+        <v>177854</v>
       </c>
       <c r="C10" t="s">
         <v>125</v>
@@ -3490,7 +3490,7 @@
         <v>38823</v>
       </c>
       <c r="B11" t="n">
-        <v>146511</v>
+        <v>177855</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
@@ -3630,7 +3630,7 @@
         <v>38823</v>
       </c>
       <c r="B13" t="n">
-        <v>146512</v>
+        <v>177856</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -3705,7 +3705,7 @@
         <v>38823</v>
       </c>
       <c r="B14" t="n">
-        <v>146513</v>
+        <v>177857</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -3780,7 +3780,7 @@
         <v>38823</v>
       </c>
       <c r="B15" t="n">
-        <v>146514</v>
+        <v>177858</v>
       </c>
       <c r="C15" t="s">
         <v>175</v>
@@ -3855,7 +3855,7 @@
         <v>38823</v>
       </c>
       <c r="B16" t="n">
-        <v>146515</v>
+        <v>177859</v>
       </c>
       <c r="C16" t="s">
         <v>185</v>
@@ -3930,7 +3930,7 @@
         <v>38823</v>
       </c>
       <c r="B17" t="n">
-        <v>146516</v>
+        <v>177860</v>
       </c>
       <c r="C17" t="s">
         <v>194</v>
@@ -4005,7 +4005,7 @@
         <v>38823</v>
       </c>
       <c r="B18" t="n">
-        <v>146517</v>
+        <v>177861</v>
       </c>
       <c r="C18" t="s">
         <v>204</v>
@@ -4080,7 +4080,7 @@
         <v>38823</v>
       </c>
       <c r="B19" t="n">
-        <v>146518</v>
+        <v>177862</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -4155,7 +4155,7 @@
         <v>38823</v>
       </c>
       <c r="B20" t="n">
-        <v>146519</v>
+        <v>177863</v>
       </c>
       <c r="C20" t="s">
         <v>222</v>
@@ -4222,7 +4222,7 @@
         <v>38823</v>
       </c>
       <c r="B21" t="n">
-        <v>146520</v>
+        <v>177864</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -4293,7 +4293,7 @@
         <v>38823</v>
       </c>
       <c r="B22" t="n">
-        <v>146521</v>
+        <v>177865</v>
       </c>
       <c r="C22" t="s">
         <v>239</v>
@@ -4557,7 +4557,7 @@
         <v>38823</v>
       </c>
       <c r="B26" t="n">
-        <v>146522</v>
+        <v>177866</v>
       </c>
       <c r="C26" t="s">
         <v>272</v>
@@ -4766,7 +4766,7 @@
         <v>38823</v>
       </c>
       <c r="B29" t="n">
-        <v>146523</v>
+        <v>177867</v>
       </c>
       <c r="C29" t="s">
         <v>302</v>
@@ -4837,7 +4837,7 @@
         <v>38823</v>
       </c>
       <c r="B30" t="n">
-        <v>146524</v>
+        <v>177868</v>
       </c>
       <c r="C30" t="s">
         <v>312</v>
@@ -4967,7 +4967,7 @@
         <v>38823</v>
       </c>
       <c r="B32" t="n">
-        <v>146525</v>
+        <v>177869</v>
       </c>
       <c r="C32" t="s">
         <v>330</v>
@@ -5028,7 +5028,7 @@
         <v>38823</v>
       </c>
       <c r="B33" t="n">
-        <v>146526</v>
+        <v>177870</v>
       </c>
       <c r="C33" t="s">
         <v>338</v>
@@ -5156,7 +5156,7 @@
         <v>38823</v>
       </c>
       <c r="B35" t="n">
-        <v>146527</v>
+        <v>177871</v>
       </c>
       <c r="C35" t="s">
         <v>350</v>
@@ -5227,7 +5227,7 @@
         <v>38823</v>
       </c>
       <c r="B36" t="n">
-        <v>146528</v>
+        <v>177872</v>
       </c>
       <c r="C36" t="s">
         <v>360</v>
@@ -5298,7 +5298,7 @@
         <v>38823</v>
       </c>
       <c r="B37" t="n">
-        <v>146529</v>
+        <v>177873</v>
       </c>
       <c r="C37" t="s">
         <v>370</v>
@@ -5369,7 +5369,7 @@
         <v>38823</v>
       </c>
       <c r="B38" t="n">
-        <v>146530</v>
+        <v>177874</v>
       </c>
       <c r="C38" t="s">
         <v>379</v>
@@ -5440,7 +5440,7 @@
         <v>38823</v>
       </c>
       <c r="B39" t="n">
-        <v>146531</v>
+        <v>177875</v>
       </c>
       <c r="C39" t="s">
         <v>388</v>
@@ -5582,7 +5582,7 @@
         <v>38823</v>
       </c>
       <c r="B41" t="n">
-        <v>146532</v>
+        <v>177876</v>
       </c>
       <c r="C41" t="s">
         <v>407</v>
@@ -5653,7 +5653,7 @@
         <v>38823</v>
       </c>
       <c r="B42" t="n">
-        <v>146533</v>
+        <v>177877</v>
       </c>
       <c r="C42" t="s">
         <v>417</v>
@@ -5724,7 +5724,7 @@
         <v>38823</v>
       </c>
       <c r="B43" t="n">
-        <v>146534</v>
+        <v>177878</v>
       </c>
       <c r="C43" t="s">
         <v>427</v>
@@ -5795,7 +5795,7 @@
         <v>38823</v>
       </c>
       <c r="B44" t="n">
-        <v>146535</v>
+        <v>177879</v>
       </c>
       <c r="C44" t="s">
         <v>436</v>
@@ -5941,7 +5941,7 @@
         <v>38823</v>
       </c>
       <c r="B46" t="n">
-        <v>146536</v>
+        <v>177880</v>
       </c>
       <c r="C46" t="s">
         <v>455</v>
@@ -6012,7 +6012,7 @@
         <v>38823</v>
       </c>
       <c r="B47" t="n">
-        <v>146537</v>
+        <v>177881</v>
       </c>
       <c r="C47" t="s">
         <v>462</v>
@@ -6083,7 +6083,7 @@
         <v>38823</v>
       </c>
       <c r="B48" t="n">
-        <v>146538</v>
+        <v>177882</v>
       </c>
       <c r="C48" t="s">
         <v>471</v>
@@ -6158,7 +6158,7 @@
         <v>38823</v>
       </c>
       <c r="B49" t="n">
-        <v>146539</v>
+        <v>177883</v>
       </c>
       <c r="C49" t="s">
         <v>481</v>
@@ -6233,7 +6233,7 @@
         <v>38823</v>
       </c>
       <c r="B50" t="n">
-        <v>146540</v>
+        <v>177884</v>
       </c>
       <c r="C50" t="s">
         <v>491</v>
@@ -6369,7 +6369,7 @@
         <v>38823</v>
       </c>
       <c r="B52" t="n">
-        <v>146541</v>
+        <v>177885</v>
       </c>
       <c r="C52" t="s">
         <v>510</v>
@@ -6507,7 +6507,7 @@
         <v>38823</v>
       </c>
       <c r="B54" t="n">
-        <v>146542</v>
+        <v>177886</v>
       </c>
       <c r="C54" t="s">
         <v>524</v>
@@ -6578,7 +6578,7 @@
         <v>38823</v>
       </c>
       <c r="B55" t="n">
-        <v>146543</v>
+        <v>177887</v>
       </c>
       <c r="C55" t="s">
         <v>533</v>
@@ -6724,7 +6724,7 @@
         <v>38823</v>
       </c>
       <c r="B57" t="n">
-        <v>146544</v>
+        <v>177888</v>
       </c>
       <c r="C57" t="s">
         <v>551</v>
@@ -6795,7 +6795,7 @@
         <v>38823</v>
       </c>
       <c r="B58" t="n">
-        <v>146545</v>
+        <v>177889</v>
       </c>
       <c r="C58" t="s">
         <v>558</v>
@@ -6870,7 +6870,7 @@
         <v>38823</v>
       </c>
       <c r="B59" t="n">
-        <v>146546</v>
+        <v>177890</v>
       </c>
       <c r="C59" t="s">
         <v>568</v>
@@ -7012,7 +7012,7 @@
         <v>38823</v>
       </c>
       <c r="B61" t="n">
-        <v>146547</v>
+        <v>177891</v>
       </c>
       <c r="C61" t="s">
         <v>582</v>
@@ -7083,7 +7083,7 @@
         <v>38823</v>
       </c>
       <c r="B62" t="n">
-        <v>146548</v>
+        <v>177892</v>
       </c>
       <c r="C62" t="s">
         <v>588</v>
@@ -7308,7 +7308,7 @@
         <v>38823</v>
       </c>
       <c r="B65" t="n">
-        <v>146549</v>
+        <v>177893</v>
       </c>
       <c r="C65" t="s">
         <v>618</v>
@@ -7454,7 +7454,7 @@
         <v>38823</v>
       </c>
       <c r="B67" t="n">
-        <v>146550</v>
+        <v>177894</v>
       </c>
       <c r="C67" t="s">
         <v>637</v>
@@ -7529,7 +7529,7 @@
         <v>38823</v>
       </c>
       <c r="B68" t="n">
-        <v>146551</v>
+        <v>177895</v>
       </c>
       <c r="C68" t="s">
         <v>646</v>
@@ -7604,7 +7604,7 @@
         <v>38823</v>
       </c>
       <c r="B69" t="n">
-        <v>146552</v>
+        <v>177896</v>
       </c>
       <c r="C69" t="s">
         <v>656</v>
@@ -7677,7 +7677,7 @@
         <v>38823</v>
       </c>
       <c r="B70" t="n">
-        <v>146553</v>
+        <v>177897</v>
       </c>
       <c r="C70" t="s">
         <v>663</v>
@@ -7823,7 +7823,7 @@
         <v>38823</v>
       </c>
       <c r="B72" t="n">
-        <v>146554</v>
+        <v>177898</v>
       </c>
       <c r="C72" t="s">
         <v>679</v>
@@ -7973,7 +7973,7 @@
         <v>38823</v>
       </c>
       <c r="B74" t="n">
-        <v>146555</v>
+        <v>177899</v>
       </c>
       <c r="C74" t="s">
         <v>694</v>
@@ -8115,7 +8115,7 @@
         <v>38823</v>
       </c>
       <c r="B76" t="n">
-        <v>146556</v>
+        <v>177900</v>
       </c>
       <c r="C76" t="s">
         <v>706</v>
@@ -8257,7 +8257,7 @@
         <v>38823</v>
       </c>
       <c r="B78" t="n">
-        <v>146557</v>
+        <v>177901</v>
       </c>
       <c r="C78" t="s">
         <v>721</v>
@@ -8328,7 +8328,7 @@
         <v>38823</v>
       </c>
       <c r="B79" t="n">
-        <v>146558</v>
+        <v>177902</v>
       </c>
       <c r="C79" t="s">
         <v>727</v>
@@ -8399,7 +8399,7 @@
         <v>38823</v>
       </c>
       <c r="B80" t="n">
-        <v>146559</v>
+        <v>177903</v>
       </c>
       <c r="C80" t="s">
         <v>734</v>
@@ -8466,7 +8466,7 @@
         <v>38823</v>
       </c>
       <c r="B81" t="n">
-        <v>146560</v>
+        <v>177904</v>
       </c>
       <c r="C81" t="s">
         <v>741</v>
@@ -8608,7 +8608,7 @@
         <v>38823</v>
       </c>
       <c r="B83" t="n">
-        <v>146561</v>
+        <v>177905</v>
       </c>
       <c r="C83" t="s">
         <v>756</v>
@@ -8679,7 +8679,7 @@
         <v>38823</v>
       </c>
       <c r="B84" t="n">
-        <v>146562</v>
+        <v>177906</v>
       </c>
       <c r="C84" t="s">
         <v>763</v>
@@ -8750,7 +8750,7 @@
         <v>38823</v>
       </c>
       <c r="B85" t="n">
-        <v>146563</v>
+        <v>177907</v>
       </c>
       <c r="C85" t="s">
         <v>771</v>
